--- a/excel.xlsx
+++ b/excel.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2325"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2325" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="116">
   <si>
     <t xml:space="preserve">        &lt;item&gt;GMT-1&lt;/item&gt; </t>
   </si>
@@ -177,13 +179,208 @@
   </si>
   <si>
     <t>Waktu Tengah Dunia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PEMBANGKITAN KE -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  N</t>
+  </si>
+  <si>
+    <t>Politeknik Negeri Samarinda Tahun 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Batas Atas Prima ( 3400 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  entropi</t>
+  </si>
+  <si>
+    <t>Perihal</t>
+  </si>
+  <si>
+    <t>epada Yth.</t>
+  </si>
+  <si>
+    <t>(Daftar Terlampir)</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>tempaat</t>
+  </si>
+  <si>
+    <t>Menindaklanjuti surat Direktur Jenderal Pendidikan Tingp tertanggal 31 Maret 2020 tentang Masa</t>
+  </si>
+  <si>
+    <t>Belajar Penyelengparaan Program Pendidikan, pada poit 3 yaitu "penelitian tuggs akhir selama</t>
+  </si>
+  <si>
+    <t>2020 diperpanjang sampai dengan 30 Agustus 2020</t>
+  </si>
+  <si>
+    <t>Demikian disampaikan, terima kasih atas perhatian dan kerjasamanya</t>
+  </si>
+  <si>
+    <t>An Direktur</t>
+  </si>
+  <si>
+    <t>Wakil Direktur Bidang Akademik</t>
+  </si>
+  <si>
+    <t>Sujiati Jepriani.ST. M.Eng</t>
+  </si>
+  <si>
+    <t>NIP. 19711022 199702 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CipherText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Privat_Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Publik_Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PlainText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  GCD ( p - 1, q - 1 ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  gcd (φ (n) ,e ) = 1, sebanyak</t>
+  </si>
+  <si>
+    <t>02 : 39</t>
+  </si>
+  <si>
+    <t>14 : 44</t>
+  </si>
+  <si>
+    <t>14 : 49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14 : 54</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14 : 59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rentang Waktu ( HH : mm )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> surat // ini variabel</t>
+  </si>
+  <si>
+    <t>Obat kehidupan adalah sederhana.</t>
+  </si>
+  <si>
+    <t>Sederhana itu cara hidup.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Privat_Key (e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Publik_Key (d)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PlainText (m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CipherText (C)</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>0927, 4926, 0753, 4158, 0640, 6844, 2858, 3900, 8619, 6917, 8222, 4571, 6924, 4158, 2206, 6844, 4158, 8222, 4158, 5348, 4158, 8619, 6844, 1163, 3900, 8222, 3900, 2865, 8619, 4158, 2206, 4158, 1487, 0927, 1000, 3900, 8222, 3900, 2865, 8619, 4158, 2206, 4158, 6844, 6917, 0640, 4571, 6844, 0623, 4158, 2865, 4158, 6844, 8619, 6917, 8222, 4571, 6924, 1487, 0927, 4783, 4158, 2865, 4158, 6844, 8619, 6917, 8222, 4571, 6924, 6844, 6917, 0640, 4571, 6844, 1163, 3900, 8222, 3900, 2865, 8619, 4158, 2206, 4158, 1487, 0927, 6844, 6844, 6844, 6844</t>
+  </si>
+  <si>
+    <t>2994, 1574, 2609, 1434, 3375, 2078, 5463, 0221, 0952, 3537, 5067, 1939, 1082, 1434, 1295, 2078, 1434, 5067, 1434, 1052, 1434, 0952, 2078, 073, 0221, 5067, 0221, 2400, 0952, 1434, 1295, 1434, 4493, 2994, 5283, 0221, 5067, 0221, 2400, 0952, 1434, 1295, 1434, 2078, 3537, 3375, 1939, 2078, 3695, 1434, 2400, 1434, 2078, 0952, 3537, 5067, 1939, 1082, 4493, 2994, 05, 1434, 2400, 1434, 2078, 0952, 3537, 5067, 1939, 1082, 2078, 3537, 3375, 1939, 2078, 073, 0221, 5067, 0221, 2400, 0952, 1434, 1295, 1434, 4493, 2994, 2078, 2078, 2078, 2078</t>
+  </si>
+  <si>
+    <t>14223, 3544, 4973, 4783, 14013, 3457, 9994, 14405, 13954, 5704, 15508, 4500, 13887, 4783, 3265, 3457, 4783, 15508, 4783, 16221, 4783, 13954, 3457, 13666, 14405, 15508, 14405, 10871, 13954, 4783, 3265, 4783, 16313, 14223, 8632, 14405, 15508, 14405, 10871, 13954, 4783, 3265, 4783, 3457, 5704, 14013, 4500, 3457, 2119, 4783, 10871, 4783, 3457, 13954, 5704, 15508, 4500, 13887, 16313, 14223, 11825, 4783, 10871, 4783, 3457, 13954, 5704, 15508, 4500, 13887, 3457, 5704, 14013, 4500, 3457, 13666, 14405, 15508, 14405, 10871, 13954, 4783, 3265, 4783, 16313, 14223, 3457, 3457, 3457, 3457</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>7659, 1725, 1425, 2182, 1911, 10982, 3359, 7331, 7600, 9879, 3925, 12147, 0831, 2182, 9584, 10982, 2182, 3925, 2182, 10362, 2182, 7600, 10982, 5793, 7331, 3925, 7331, 7453, 7600, 2182, 9584, 2182, 0940, 7659, 033, 7331, 3925, 7331, 7453, 7600, 2182, 9584, 2182, 10982, 9879, 1911, 12147, 10982, 11183, 2182, 7453, 2182, 10982, 7600, 9879, 3925, 12147, 0831, 0940, 7659, 6700, 2182, 7453, 2182, 10982, 7600, 9879, 3925, 12147, 0831, 10982, 9879, 1911, 12147, 10982, 5793, 7331, 3925, 7331, 7453, 7600, 2182, 9584, 2182, 0940, 7659, 10982, 10982, 10982, 10982</t>
+  </si>
+  <si>
+    <t>2177, 1261, 6008, 3643, 1889, 032, 5032, 4435, 3847, 2863, 0297, 6027, 3461, 3643, 1292, 032, 3643, 0297, 3643, 2472, 3643, 3847, 032, 3267, 4435, 0297, 4435, 4054, 3847, 3643, 1292, 3643, 2410, 2177, 4023, 4435, 0297, 4435, 4054, 3847, 3643, 1292, 3643, 032, 2863, 1889, 6027, 032, 6009, 3643, 4054, 3643, 032, 3847, 2863, 0297, 6027, 3461, 2410, 2177, 5977, 3643, 4054, 3643, 032, 3847, 2863, 0297, 6027, 3461, 032, 2863, 1889, 6027, 032, 3267, 4435, 0297, 4435, 4054, 3847, 3643, 1292, 3643, 2410, 2177, 032, 032, 032, 032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Yogi Arif Widodo, [17.04.20 10:55]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    السلامعليكمورحمةاللهبركاته</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;!--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    (DOCUMENT~3986)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Obat kehidupan adalah sederhana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Sederhana itu cara hidup.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Cara hidup itu sederhana.--&gt;</t>
+  </si>
+  <si>
+    <t>Yogi Arif Widodo, [17.04.20 10:55]</t>
+  </si>
+  <si>
+    <t>&lt;!--</t>
+  </si>
+  <si>
+    <t>السلامعليكمورحمةاللهبركاته</t>
+  </si>
+  <si>
+    <t>(DOCUMENT~3986)</t>
+  </si>
+  <si>
+    <t>Cara hidup itu sederhana.--&gt;</t>
+  </si>
+  <si>
+    <t>5.046532321730296</t>
+  </si>
+  <si>
+    <t>13 : 57</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +414,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -226,7 +431,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -314,18 +519,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -333,12 +634,71 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -357,7 +717,93 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,6 +819,141 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1295400" y="1143000"/>
+          <a:ext cx="323850" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1295400" y="1533525"/>
+          <a:ext cx="323850" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -640,243 +1221,243 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="4" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
     </row>
     <row r="5" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="H5" s="10" t="s">
+      <c r="E5" s="32"/>
+      <c r="H5" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="2"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
     </row>
     <row r="7" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="R10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="R11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="8"/>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7" t="s">
+      <c r="H12" s="4"/>
+      <c r="I12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="R12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="H13" s="6"/>
-      <c r="I13" s="7" t="s">
+      <c r="H13" s="4"/>
+      <c r="I13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="R13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="8"/>
-      <c r="I14" s="9" t="s">
+      <c r="H14" s="6"/>
+      <c r="I14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="R15" s="3" t="s">
+      <c r="R15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="R16" s="3" t="s">
+      <c r="R16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R17" s="3" t="s">
+      <c r="R17" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R19" s="3" t="s">
+      <c r="R19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R20" s="3" t="s">
+      <c r="R20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R21" s="3" t="s">
+      <c r="R21" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R22" s="3" t="s">
+      <c r="R22" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R23" s="3" t="s">
+      <c r="R23" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R24" s="3" t="s">
+      <c r="R24" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R25" s="3" t="s">
+      <c r="R25" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R26" s="3" t="s">
+      <c r="R26" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R27" s="3" t="s">
+      <c r="R27" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R28" s="3" t="s">
+      <c r="R28" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R29" s="3" t="s">
+      <c r="R29" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R30" s="3" t="s">
+      <c r="R30" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R31" s="3" t="s">
+      <c r="R31" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -889,4 +1470,732 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="71"/>
+      <c r="M2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="11"/>
+      <c r="D3" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="71"/>
+      <c r="M3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="11"/>
+      <c r="D4" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="71"/>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="11"/>
+      <c r="D5" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="71"/>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C6" s="11"/>
+      <c r="D6" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="71"/>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="11"/>
+      <c r="D7" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="71"/>
+    </row>
+    <row r="8" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="47"/>
+      <c r="D8" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="71"/>
+      <c r="M8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="71"/>
+      <c r="M9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="71"/>
+      <c r="M10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="65">
+        <v>1</v>
+      </c>
+      <c r="E11" s="21">
+        <v>2</v>
+      </c>
+      <c r="F11" s="65">
+        <v>3</v>
+      </c>
+      <c r="G11" s="21">
+        <v>4</v>
+      </c>
+      <c r="H11" s="65">
+        <v>5</v>
+      </c>
+      <c r="I11" s="71"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="M11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="66">
+        <v>73</v>
+      </c>
+      <c r="E12" s="24">
+        <v>47</v>
+      </c>
+      <c r="F12" s="66">
+        <v>83</v>
+      </c>
+      <c r="G12" s="24">
+        <v>67</v>
+      </c>
+      <c r="H12" s="66">
+        <v>31</v>
+      </c>
+      <c r="M12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="67">
+        <v>131</v>
+      </c>
+      <c r="E13" s="26">
+        <v>271</v>
+      </c>
+      <c r="F13" s="67">
+        <v>197</v>
+      </c>
+      <c r="G13" s="26">
+        <v>197</v>
+      </c>
+      <c r="H13" s="67">
+        <v>197</v>
+      </c>
+      <c r="M13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="67">
+        <v>9563</v>
+      </c>
+      <c r="E14" s="26">
+        <v>12737</v>
+      </c>
+      <c r="F14" s="67">
+        <v>16351</v>
+      </c>
+      <c r="G14" s="26">
+        <v>13199</v>
+      </c>
+      <c r="H14" s="67">
+        <v>6107</v>
+      </c>
+      <c r="M14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="11"/>
+      <c r="D15" s="67">
+        <v>9360</v>
+      </c>
+      <c r="E15" s="26">
+        <v>1240</v>
+      </c>
+      <c r="F15" s="67">
+        <v>16072</v>
+      </c>
+      <c r="G15" s="26">
+        <v>12936</v>
+      </c>
+      <c r="H15" s="67">
+        <v>5880</v>
+      </c>
+      <c r="M15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="67">
+        <v>131</v>
+      </c>
+      <c r="E16" s="26">
+        <v>227</v>
+      </c>
+      <c r="F16" s="67">
+        <v>109</v>
+      </c>
+      <c r="G16" s="26">
+        <v>173</v>
+      </c>
+      <c r="H16" s="67">
+        <v>197</v>
+      </c>
+      <c r="M16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="67">
+        <v>7931</v>
+      </c>
+      <c r="E17" s="26">
+        <v>383</v>
+      </c>
+      <c r="F17" s="67">
+        <v>2949</v>
+      </c>
+      <c r="G17" s="26">
+        <v>5309</v>
+      </c>
+      <c r="H17" s="67">
+        <v>1373</v>
+      </c>
+      <c r="M17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="M18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="69">
+        <v>2</v>
+      </c>
+      <c r="E19" s="70">
+        <v>2</v>
+      </c>
+      <c r="F19" s="69">
+        <v>2</v>
+      </c>
+      <c r="G19" s="70">
+        <v>2</v>
+      </c>
+      <c r="H19" s="69">
+        <v>2</v>
+      </c>
+      <c r="M19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="68">
+        <v>2303</v>
+      </c>
+      <c r="E20" s="26">
+        <v>3167</v>
+      </c>
+      <c r="F20" s="68">
+        <v>6719</v>
+      </c>
+      <c r="G20" s="26">
+        <v>3359</v>
+      </c>
+      <c r="H20" s="68">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="57"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C48" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="46"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="43"/>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="21">
+        <v>1</v>
+      </c>
+      <c r="E51" s="21">
+        <v>2</v>
+      </c>
+      <c r="F51" s="21">
+        <v>3</v>
+      </c>
+      <c r="G51" s="21">
+        <v>4</v>
+      </c>
+      <c r="H51" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="23">
+        <v>73</v>
+      </c>
+      <c r="E52" s="24">
+        <v>31</v>
+      </c>
+      <c r="F52" s="24">
+        <v>83</v>
+      </c>
+      <c r="G52" s="24">
+        <v>67</v>
+      </c>
+      <c r="H52" s="25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="14">
+        <v>131</v>
+      </c>
+      <c r="E53" s="26">
+        <v>197</v>
+      </c>
+      <c r="F53" s="26">
+        <v>197</v>
+      </c>
+      <c r="G53" s="26">
+        <v>197</v>
+      </c>
+      <c r="H53" s="27">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="14">
+        <v>9563</v>
+      </c>
+      <c r="E54" s="26">
+        <v>6107</v>
+      </c>
+      <c r="F54" s="26">
+        <v>16351</v>
+      </c>
+      <c r="G54" s="26">
+        <v>13199</v>
+      </c>
+      <c r="H54" s="27">
+        <v>6107</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C55" s="11"/>
+      <c r="D55" s="14">
+        <v>9360</v>
+      </c>
+      <c r="E55" s="26">
+        <v>5880</v>
+      </c>
+      <c r="F55" s="26">
+        <v>16072</v>
+      </c>
+      <c r="G55" s="26">
+        <v>12936</v>
+      </c>
+      <c r="H55" s="27">
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="14">
+        <v>131</v>
+      </c>
+      <c r="E56" s="26">
+        <v>109</v>
+      </c>
+      <c r="F56" s="26">
+        <v>109</v>
+      </c>
+      <c r="G56" s="26">
+        <v>173</v>
+      </c>
+      <c r="H56" s="27">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="14">
+        <v>7931</v>
+      </c>
+      <c r="E57" s="26">
+        <v>8101</v>
+      </c>
+      <c r="F57" s="26">
+        <v>2949</v>
+      </c>
+      <c r="G57" s="26">
+        <v>5309</v>
+      </c>
+      <c r="H57" s="27">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="14"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="27"/>
+    </row>
+    <row r="59" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="14">
+        <v>2</v>
+      </c>
+      <c r="E59" s="26">
+        <v>2</v>
+      </c>
+      <c r="F59" s="26">
+        <v>2</v>
+      </c>
+      <c r="G59" s="26">
+        <v>2</v>
+      </c>
+      <c r="H59" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="14">
+        <v>2303</v>
+      </c>
+      <c r="E60" s="26">
+        <v>1343</v>
+      </c>
+      <c r="F60" s="26">
+        <v>6719</v>
+      </c>
+      <c r="G60" s="26">
+        <v>3359</v>
+      </c>
+      <c r="H60" s="27">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="28"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/excel.xlsx
+++ b/excel.xlsx
@@ -16,7 +16,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="119">
   <si>
     <t xml:space="preserve">        &lt;item&gt;GMT-1&lt;/item&gt; </t>
   </si>
@@ -283,24 +282,12 @@
     <t xml:space="preserve"> surat // ini variabel</t>
   </si>
   <si>
-    <t>Obat kehidupan adalah sederhana.</t>
-  </si>
-  <si>
-    <t>Sederhana itu cara hidup.</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Privat_Key (e)</t>
   </si>
   <si>
     <t xml:space="preserve">  Publik_Key (d)</t>
   </si>
   <si>
-    <t xml:space="preserve">  PlainText (m)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  CipherText (C)</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -316,27 +303,6 @@
     <t>C5</t>
   </si>
   <si>
-    <t>0927, 4926, 0753, 4158, 0640, 6844, 2858, 3900, 8619, 6917, 8222, 4571, 6924, 4158, 2206, 6844, 4158, 8222, 4158, 5348, 4158, 8619, 6844, 1163, 3900, 8222, 3900, 2865, 8619, 4158, 2206, 4158, 1487, 0927, 1000, 3900, 8222, 3900, 2865, 8619, 4158, 2206, 4158, 6844, 6917, 0640, 4571, 6844, 0623, 4158, 2865, 4158, 6844, 8619, 6917, 8222, 4571, 6924, 1487, 0927, 4783, 4158, 2865, 4158, 6844, 8619, 6917, 8222, 4571, 6924, 6844, 6917, 0640, 4571, 6844, 1163, 3900, 8222, 3900, 2865, 8619, 4158, 2206, 4158, 1487, 0927, 6844, 6844, 6844, 6844</t>
-  </si>
-  <si>
-    <t>2994, 1574, 2609, 1434, 3375, 2078, 5463, 0221, 0952, 3537, 5067, 1939, 1082, 1434, 1295, 2078, 1434, 5067, 1434, 1052, 1434, 0952, 2078, 073, 0221, 5067, 0221, 2400, 0952, 1434, 1295, 1434, 4493, 2994, 5283, 0221, 5067, 0221, 2400, 0952, 1434, 1295, 1434, 2078, 3537, 3375, 1939, 2078, 3695, 1434, 2400, 1434, 2078, 0952, 3537, 5067, 1939, 1082, 4493, 2994, 05, 1434, 2400, 1434, 2078, 0952, 3537, 5067, 1939, 1082, 2078, 3537, 3375, 1939, 2078, 073, 0221, 5067, 0221, 2400, 0952, 1434, 1295, 1434, 4493, 2994, 2078, 2078, 2078, 2078</t>
-  </si>
-  <si>
-    <t>14223, 3544, 4973, 4783, 14013, 3457, 9994, 14405, 13954, 5704, 15508, 4500, 13887, 4783, 3265, 3457, 4783, 15508, 4783, 16221, 4783, 13954, 3457, 13666, 14405, 15508, 14405, 10871, 13954, 4783, 3265, 4783, 16313, 14223, 8632, 14405, 15508, 14405, 10871, 13954, 4783, 3265, 4783, 3457, 5704, 14013, 4500, 3457, 2119, 4783, 10871, 4783, 3457, 13954, 5704, 15508, 4500, 13887, 16313, 14223, 11825, 4783, 10871, 4783, 3457, 13954, 5704, 15508, 4500, 13887, 3457, 5704, 14013, 4500, 3457, 13666, 14405, 15508, 14405, 10871, 13954, 4783, 3265, 4783, 16313, 14223, 3457, 3457, 3457, 3457</t>
-  </si>
-  <si>
-    <t>ccc</t>
-  </si>
-  <si>
-    <t>7659, 1725, 1425, 2182, 1911, 10982, 3359, 7331, 7600, 9879, 3925, 12147, 0831, 2182, 9584, 10982, 2182, 3925, 2182, 10362, 2182, 7600, 10982, 5793, 7331, 3925, 7331, 7453, 7600, 2182, 9584, 2182, 0940, 7659, 033, 7331, 3925, 7331, 7453, 7600, 2182, 9584, 2182, 10982, 9879, 1911, 12147, 10982, 11183, 2182, 7453, 2182, 10982, 7600, 9879, 3925, 12147, 0831, 0940, 7659, 6700, 2182, 7453, 2182, 10982, 7600, 9879, 3925, 12147, 0831, 10982, 9879, 1911, 12147, 10982, 5793, 7331, 3925, 7331, 7453, 7600, 2182, 9584, 2182, 0940, 7659, 10982, 10982, 10982, 10982</t>
-  </si>
-  <si>
-    <t>2177, 1261, 6008, 3643, 1889, 032, 5032, 4435, 3847, 2863, 0297, 6027, 3461, 3643, 1292, 032, 3643, 0297, 3643, 2472, 3643, 3847, 032, 3267, 4435, 0297, 4435, 4054, 3847, 3643, 1292, 3643, 2410, 2177, 4023, 4435, 0297, 4435, 4054, 3847, 3643, 1292, 3643, 032, 2863, 1889, 6027, 032, 6009, 3643, 4054, 3643, 032, 3847, 2863, 0297, 6027, 3461, 2410, 2177, 5977, 3643, 4054, 3643, 032, 3847, 2863, 0297, 6027, 3461, 032, 2863, 1889, 6027, 032, 3267, 4435, 0297, 4435, 4054, 3847, 3643, 1292, 3643, 2410, 2177, 032, 032, 032, 032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Yogi Arif Widodo, [17.04.20 10:55]</t>
-  </si>
-  <si>
     <t xml:space="preserve">    السلامعليكمورحمةاللهبركاته</t>
   </si>
   <si>
@@ -355,32 +321,159 @@
     <t xml:space="preserve">    Cara hidup itu sederhana.--&gt;</t>
   </si>
   <si>
-    <t>Yogi Arif Widodo, [17.04.20 10:55]</t>
-  </si>
-  <si>
-    <t>&lt;!--</t>
-  </si>
-  <si>
-    <t>السلامعليكمورحمةاللهبركاته</t>
-  </si>
-  <si>
-    <t>(DOCUMENT~3986)</t>
-  </si>
-  <si>
-    <t>Cara hidup itu sederhana.--&gt;</t>
-  </si>
-  <si>
-    <t>5.046532321730296</t>
-  </si>
-  <si>
     <t>13 : 57</t>
+  </si>
+  <si>
+    <t>4.814863028233948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ```Yogi Arif Widodo, [17.04.20 10:55]```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    *assalamu'alaikum warrahmatullahi wabarakatuh*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    (CATATANBIASA~3986)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Cara hidup itu sederhana. #simpel--&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  entropi blok </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cipher</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CipherText</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (C)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PlainText</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (m)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  panjang </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASCII</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> m = 242</t>
+    </r>
+  </si>
+  <si>
+    <t>2177, 032, 032, 032, 032, 2657, 2657, 2657, 2650, 5036, 2270, 2863, 032, 2626, 4054, 2863, 3057, 032, 0284, 2863, 0297, 5036, 0297, 5036, 1226, 032, 5607, 4974, 5965, 2410, 1230, 3992, 2410, 3399, 1230, 032, 4974, 1230, 2619, 3205, 3205, 093, 2657, 2657, 2657, 2177, 032, 032, 032, 032, 3785, 3643, 3267, 3267, 3643, 2472, 3643, 3852, 6027, 4373, 3643, 2472, 3643, 2863, 5032, 6027, 3852, 032, 0316, 3643, 4054, 4054, 3643, 3847, 3852, 3643, 1889, 6027, 2472, 2472, 3643, 3847, 2863, 032, 0316, 3643, 6008, 3643, 4054, 3643, 5032, 3643, 1889, 6027, 3847, 3785, 2177, 032, 032, 032, 032, 5576, 0624, 4970, 4970, 2177, 032, 032, 032, 032, 2995, 5977, 2626, 3236, 2626, 3236, 2626, 3821, 3612, 3816, 2626, 4023, 2626, 0717, 2415, 0254, 0253, 1827, 2208, 2177, 032, 032, 032, 032, 1261, 6008, 3643, 1889, 032, 5032, 4435, 3847, 2863, 0297, 6027, 3461, 3643, 1292, 032, 3643, 0297, 3643, 2472, 3643, 3847, 032, 3267, 4435, 0297, 4435, 4054, 3847, 3643, 1292, 3643, 2410, 2177, 032, 032, 032, 032, 4023, 4435, 0297, 4435, 4054, 3847, 3643, 1292, 3643, 032, 2863, 1889, 6027, 032, 6009, 3643, 4054, 3643, 032, 3847, 2863, 0297, 6027, 3461, 2410, 2177, 032, 032, 032, 032, 5977, 3643, 4054, 3643, 032, 3847, 2863, 0297, 6027, 3461, 032, 2863, 1889, 6027, 032, 3267, 4435, 0297, 4435, 4054, 3847, 3643, 1292, 3643, 2410, 032, 3581, 3267, 2863, 3852, 3461, 4435, 2472, 4970, 4970, 062, 2177, 032, 032, 032, 032</t>
+  </si>
+  <si>
+    <t>7659, 10982, 10982, 10982, 10982, 12566, 12566, 12566, 11899, 9726, 4873, 9879, 10982, 5214, 7453, 9879, 3423, 10982, 7555, 9879, 3925, 9726, 3925, 9726, 12339, 10982, 10650, 0839, 3568, 0940, 6463, 075, 0940, 0690, 6463, 10982, 0839, 6463, 2320, 9023, 9023, 3038, 12566, 12566, 12566, 7659, 10982, 10982, 10982, 10982, 0981, 2182, 5793, 5793, 2182, 10362, 2182, 11433, 12147, 6637, 2182, 10362, 2182, 9879, 3359, 12147, 11433, 10982, 6641, 2182, 7453, 7453, 2182, 7600, 11433, 2182, 1911, 12147, 10362, 10362, 2182, 7600, 9879, 10982, 6641, 2182, 1425, 2182, 7453, 2182, 3359, 2182, 1911, 12147, 7600, 0981, 7659, 10982, 10982, 10982, 10982, 10573, 12769, 11886, 11886, 7659, 10982, 10982, 10982, 10982, 6374, 6700, 5214, 7015, 5214, 7015, 5214, 3800, 4823, 8502, 5214, 033, 5214, 7853, 5461, 8019, 1962, 9741, 11166, 7659, 10982, 10982, 10982, 10982, 1725, 1425, 2182, 1911, 10982, 3359, 7331, 7600, 9879, 3925, 12147, 0831, 2182, 9584, 10982, 2182, 3925, 2182, 10362, 2182, 7600, 10982, 5793, 7331, 3925, 7331, 7453, 7600, 2182, 9584, 2182, 0940, 7659, 10982, 10982, 10982, 10982, 033, 7331, 3925, 7331, 7453, 7600, 2182, 9584, 2182, 10982, 9879, 1911, 12147, 10982, 11183, 2182, 7453, 2182, 10982, 7600, 9879, 3925, 12147, 0831, 0940, 7659, 10982, 10982, 10982, 10982, 6700, 2182, 7453, 2182, 10982, 7600, 9879, 3925, 12147, 0831, 10982, 9879, 1911, 12147, 10982, 5793, 7331, 3925, 7331, 7453, 7600, 2182, 9584, 2182, 0940, 10982, 9453, 5793, 9879, 11433, 0831, 7331, 10362, 11886, 11886, 1623, 7659, 10982, 10982, 10982, 10982</t>
+  </si>
+  <si>
+    <t>14223, 3457, 3457, 3457, 3457, 12387, 12387, 12387, 12541, 12793, 15422, 5704, 3457, 9499, 10871, 5704, 0145, 3457, 11313, 5704, 15508, 12793, 15508, 12793, 4035, 3457, 13073, 8531, 15261, 16313, 11790, 9464, 16313, 4413, 11790, 3457, 8531, 11790, 1707, 5181, 5181, 4761, 12387, 12387, 12387, 14223, 3457, 3457, 3457, 3457, 12583, 4783, 13666, 13666, 4783, 16221, 4783, 0515, 4500, 14225, 4783, 16221, 4783, 5704, 9994, 4500, 0515, 3457, 4380, 4783, 10871, 10871, 4783, 13954, 0515, 4783, 14013, 4500, 16221, 16221, 4783, 13954, 5704, 3457, 4380, 4783, 4973, 4783, 10871, 4783, 9994, 4783, 14013, 4500, 13954, 12583, 14223, 3457, 3457, 3457, 3457, 1070, 2974, 8488, 8488, 14223, 3457, 3457, 3457, 3457, 3240, 11825, 9499, 15937, 9499, 15937, 9499, 2318, 13293, 15989, 9499, 8632, 9499, 6222, 15301, 16002, 10513, 5452, 12566, 14223, 3457, 3457, 3457, 3457, 3544, 4973, 4783, 14013, 3457, 9994, 14405, 13954, 5704, 15508, 4500, 13887, 4783, 3265, 3457, 4783, 15508, 4783, 16221, 4783, 13954, 3457, 13666, 14405, 15508, 14405, 10871, 13954, 4783, 3265, 4783, 16313, 14223, 3457, 3457, 3457, 3457, 8632, 14405, 15508, 14405, 10871, 13954, 4783, 3265, 4783, 3457, 5704, 14013, 4500, 3457, 2119, 4783, 10871, 4783, 3457, 13954, 5704, 15508, 4500, 13887, 16313, 14223, 3457, 3457, 3457, 3457, 11825, 4783, 10871, 4783, 3457, 13954, 5704, 15508, 4500, 13887, 3457, 5704, 14013, 4500, 3457, 13666, 14405, 15508, 14405, 10871, 13954, 4783, 3265, 4783, 16313, 3457, 12944, 13666, 5704, 0515, 13887, 14405, 16221, 8488, 8488, 1733, 14223, 3457, 3457, 3457, 3457</t>
+  </si>
+  <si>
+    <t>4165, 1572, 1572, 1572, 1572, 5364, 5364, 5364, 3904, 2570, 2634, 10926, 1572, 5276, 1161, 10926, 5856, 1572, 6214, 10926, 12168, 2570, 12168, 2570, 4646, 1572, 11696, 11944, 2754, 12313, 1505, 2065, 12313, 11193, 1505, 1572, 11944, 1505, 5145, 9818, 9818, 4088, 5364, 5364, 5364, 4165, 1572, 1572, 1572, 1572, 5079, 7010, 11539, 11539, 7010, 8635, 7010, 4444, 4739, 10735, 7010, 8635, 7010, 10926, 12216, 4739, 4444, 1572, 3863, 7010, 1161, 1161, 7010, 10322, 4444, 7010, 12117, 4739, 8635, 8635, 7010, 10322, 10926, 1572, 3863, 7010, 12585, 7010, 1161, 7010, 12216, 7010, 12117, 4739, 10322, 5079, 4165, 1572, 1572, 1572, 1572, 0607, 3397, 9817, 9817, 4165, 1572, 1572, 1572, 1572, 11196, 5861, 5276, 1616, 5276, 1616, 5276, 8386, 9196, 11491, 5276, 9425, 5276, 9844, 4407, 7314, 2822, 0554, 11708, 4165, 1572, 1572, 1572, 1572, 8951, 12585, 7010, 12117, 1572, 12216, 2716, 10322, 10926, 12168, 4739, 7062, 7010, 6278, 1572, 7010, 12168, 7010, 8635, 7010, 10322, 1572, 11539, 2716, 12168, 2716, 1161, 10322, 7010, 6278, 7010, 12313, 4165, 1572, 1572, 1572, 1572, 9425, 2716, 12168, 2716, 1161, 10322, 7010, 6278, 7010, 1572, 10926, 12117, 4739, 1572, 10619, 7010, 1161, 7010, 1572, 10322, 10926, 12168, 4739, 7062, 12313, 4165, 1572, 1572, 1572, 1572, 5861, 7010, 1161, 7010, 1572, 10322, 10926, 12168, 4739, 7062, 1572, 10926, 12117, 4739, 1572, 11539, 2716, 12168, 2716, 1161, 10322, 7010, 6278, 7010, 12313, 1572, 10981, 11539, 10926, 4444, 7062, 2716, 8635, 9817, 9817, 9661, 4165, 1572, 1572, 1572, 1572</t>
+  </si>
+  <si>
+    <t>0927, 6844, 6844, 6844, 6844, 4812, 4812, 4812, 4019, 4434, 9142, 6917, 6844, 8842, 2865, 6917, 5211, 6844, 4803, 6917, 8222, 4434, 8222, 4434, 4498, 6844, 3759, 5551, 5950, 1487, 8956, 0445, 1487, 4897, 8956, 6844, 5551, 8956, 2940, 2018, 2018, 7691, 4812, 4812, 4812, 0927, 6844, 6844, 6844, 6844, 1090, 4158, 1163, 1163, 4158, 5348, 4158, 7576, 4571, 6851, 4158, 5348, 4158, 6917, 2858, 4571, 7576, 6844, 1560, 4158, 2865, 2865, 4158, 8619, 7576, 4158, 0640, 4571, 5348, 5348, 4158, 8619, 6917, 6844, 1560, 4158, 0753, 4158, 2865, 4158, 2858, 4158, 0640, 4571, 8619, 1090, 0927, 6844, 6844, 6844, 6844, 4121, 1212, 5809, 5809, 0927, 6844, 6844, 6844, 6844, 8424, 4783, 8842, 3490, 8842, 3490, 8842, 7021, 0459, 073, 8842, 1000, 8842, 2091, 8697, 5690, 9095, 4246, 2792, 0927, 6844, 6844, 6844, 6844, 4926, 0753, 4158, 0640, 6844, 2858, 3900, 8619, 6917, 8222, 4571, 6924, 4158, 2206, 6844, 4158, 8222, 4158, 5348, 4158, 8619, 6844, 1163, 3900, 8222, 3900, 2865, 8619, 4158, 2206, 4158, 1487, 0927, 6844, 6844, 6844, 6844, 1000, 3900, 8222, 3900, 2865, 8619, 4158, 2206, 4158, 6844, 6917, 0640, 4571, 6844, 0623, 4158, 2865, 4158, 6844, 8619, 6917, 8222, 4571, 6924, 1487, 0927, 6844, 6844, 6844, 6844, 4783, 4158, 2865, 4158, 6844, 8619, 6917, 8222, 4571, 6924, 6844, 6917, 0640, 4571, 6844, 1163, 3900, 8222, 3900, 2865, 8619, 4158, 2206, 4158, 1487, 6844, 5275, 1163, 6917, 7576, 6924, 3900, 5348, 5809, 5809, 6219, 0927, 6844, 6844, 6844, 6844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  φ (n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  entropi ASCII</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>P - Q</t>
+  </si>
+  <si>
+    <t>RATA-RATA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +515,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -431,7 +532,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -575,19 +676,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -625,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -687,6 +775,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -716,6 +830,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -726,84 +858,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,71 +929,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1295400" y="1143000"/>
-          <a:ext cx="323850" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -934,6 +975,71 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1295400" y="1533525"/>
+          <a:ext cx="323850" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8229600" y="2324100"/>
           <a:ext cx="323850" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1232,38 +1338,38 @@
   <sheetData>
     <row r="2" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
     </row>
     <row r="4" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="40"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="50"/>
     </row>
     <row r="5" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="H5" s="31" t="s">
+      <c r="E5" s="42"/>
+      <c r="H5" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="32"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
     </row>
     <row r="7" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
@@ -1474,10 +1580,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M61"/>
+  <dimension ref="B1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,205 +1593,208 @@
     <col min="5" max="5" width="8.42578125" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+    </row>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="71"/>
-      <c r="M2" t="s">
-        <v>102</v>
+        <v>106</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="39"/>
+      <c r="M2" s="31">
+        <v>4814863028233940</v>
       </c>
     </row>
     <row r="3" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C3" s="11"/>
-      <c r="D3" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="71"/>
+      <c r="C3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="39"/>
       <c r="M3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" s="11"/>
-      <c r="D4" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="71"/>
+      <c r="D4" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="39"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="11"/>
-      <c r="D5" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="71"/>
+      <c r="D5" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="39"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="11"/>
-      <c r="D6" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="71"/>
+      <c r="D6" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66"/>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="11"/>
-      <c r="D7" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="71"/>
+      <c r="D7" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
     </row>
     <row r="8" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="47"/>
-      <c r="D8" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="71"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="69"/>
       <c r="M8" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="72"/>
       <c r="M9" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="32" t="s">
         <v>78</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="32" t="s">
         <v>80</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="64" t="s">
+      <c r="H10" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="71"/>
+      <c r="J10" s="40"/>
       <c r="M10" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="65">
+      <c r="D11" s="33">
         <v>1</v>
       </c>
       <c r="E11" s="21">
         <v>2</v>
       </c>
-      <c r="F11" s="65">
+      <c r="F11" s="33">
         <v>3</v>
       </c>
       <c r="G11" s="21">
         <v>4</v>
       </c>
-      <c r="H11" s="65">
+      <c r="H11" s="33">
         <v>5</v>
       </c>
-      <c r="I11" s="71"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="M11" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="66">
+      <c r="D12" s="34">
         <v>73</v>
       </c>
       <c r="E12" s="24">
         <v>47</v>
       </c>
-      <c r="F12" s="66">
+      <c r="F12" s="34">
         <v>83</v>
       </c>
       <c r="G12" s="24">
         <v>67</v>
       </c>
-      <c r="H12" s="66">
+      <c r="H12" s="34">
         <v>31</v>
       </c>
       <c r="M12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D13" s="36">
         <v>131</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="29">
         <v>271</v>
       </c>
-      <c r="F13" s="67">
+      <c r="F13" s="36">
         <v>197</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="29">
         <v>197</v>
       </c>
-      <c r="H13" s="67">
+      <c r="H13" s="36">
         <v>197</v>
       </c>
       <c r="M13" t="s">
@@ -1693,43 +1802,45 @@
       </c>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="67">
+      <c r="D14" s="34">
         <v>9563</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="24">
         <v>12737</v>
       </c>
-      <c r="F14" s="67">
+      <c r="F14" s="34">
         <v>16351</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="24">
         <v>13199</v>
       </c>
-      <c r="H14" s="67">
+      <c r="H14" s="34">
         <v>6107</v>
       </c>
       <c r="M14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="11"/>
-      <c r="D15" s="67">
+    <row r="15" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="36">
         <v>9360</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="29">
         <v>1240</v>
       </c>
-      <c r="F15" s="67">
+      <c r="F15" s="36">
         <v>16072</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="29">
         <v>12936</v>
       </c>
-      <c r="H15" s="67">
+      <c r="H15" s="36">
         <v>5880</v>
       </c>
       <c r="M15" t="s">
@@ -1738,21 +1849,21 @@
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C16" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="67">
+        <v>86</v>
+      </c>
+      <c r="D16" s="35">
         <v>131</v>
       </c>
       <c r="E16" s="26">
         <v>227</v>
       </c>
-      <c r="F16" s="67">
+      <c r="F16" s="35">
         <v>109</v>
       </c>
       <c r="G16" s="26">
         <v>173</v>
       </c>
-      <c r="H16" s="67">
+      <c r="H16" s="35">
         <v>197</v>
       </c>
       <c r="M16" t="s">
@@ -1761,21 +1872,21 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C17" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="67">
+        <v>85</v>
+      </c>
+      <c r="D17" s="35">
         <v>7931</v>
       </c>
       <c r="E17" s="26">
         <v>383</v>
       </c>
-      <c r="F17" s="67">
+      <c r="F17" s="35">
         <v>2949</v>
       </c>
       <c r="G17" s="26">
         <v>5309</v>
       </c>
-      <c r="H17" s="67">
+      <c r="H17" s="35">
         <v>1373</v>
       </c>
       <c r="M17" t="s">
@@ -1784,22 +1895,22 @@
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="67" t="s">
+      <c r="H18" s="35" t="s">
         <v>91</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" s="67" t="s">
-        <v>95</v>
       </c>
       <c r="M18" t="s">
         <v>63</v>
@@ -1809,19 +1920,19 @@
       <c r="C19" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="69">
+      <c r="D19" s="37">
         <v>2</v>
       </c>
-      <c r="E19" s="70">
+      <c r="E19" s="38">
         <v>2</v>
       </c>
-      <c r="F19" s="69">
+      <c r="F19" s="37">
         <v>2</v>
       </c>
-      <c r="G19" s="70">
+      <c r="G19" s="38">
         <v>2</v>
       </c>
-      <c r="H19" s="69">
+      <c r="H19" s="37">
         <v>2</v>
       </c>
       <c r="M19" t="s">
@@ -1835,76 +1946,85 @@
       <c r="C20" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="68">
+      <c r="D20" s="36">
         <v>2303</v>
       </c>
       <c r="E20" s="26">
         <v>3167</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="36">
         <v>6719</v>
       </c>
       <c r="G20" s="26">
         <v>3359</v>
       </c>
-      <c r="H20" s="68">
+      <c r="H20" s="36">
         <v>3359</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="57"/>
+      <c r="D21" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="31"/>
+    </row>
+    <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="63"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>99</v>
-      </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
@@ -1942,25 +2062,25 @@
       <c r="C48" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="44" t="s">
+      <c r="D48" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="46"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="56"/>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="41" t="s">
+      <c r="D49" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="43"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="59"/>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="11" t="s">
@@ -2180,8 +2300,91 @@
       <c r="G61" s="29"/>
       <c r="H61" s="30"/>
     </row>
+    <row r="68" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="6:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F69" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="G69" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="H69" s="74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="6:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F70" s="75">
+        <v>73</v>
+      </c>
+      <c r="G70" s="76">
+        <v>131</v>
+      </c>
+      <c r="H70" s="76">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="6:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F71" s="75">
+        <v>47</v>
+      </c>
+      <c r="G71" s="76">
+        <v>271</v>
+      </c>
+      <c r="H71" s="76">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="72" spans="6:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="75">
+        <v>83</v>
+      </c>
+      <c r="G72" s="76">
+        <v>197</v>
+      </c>
+      <c r="H72" s="76">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="6:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F73" s="75">
+        <v>67</v>
+      </c>
+      <c r="G73" s="76">
+        <v>197</v>
+      </c>
+      <c r="H73" s="76">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="6:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F74" s="75">
+        <v>31</v>
+      </c>
+      <c r="G74" s="76">
+        <v>107</v>
+      </c>
+      <c r="H74" s="76">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F75" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="G75" s="72"/>
+      <c r="H75" s="77">
+        <f>AVERAGE(H70:H74)</f>
+        <v>120.4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D22:H22"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="D21:H21"/>
     <mergeCell ref="D8:H8"/>
@@ -2190,9 +2393,6 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D49:H49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2325" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2325" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="155">
   <si>
     <t xml:space="preserve">        &lt;item&gt;GMT-1&lt;/item&gt; </t>
   </si>
@@ -465,15 +469,172 @@
   <si>
     <t>RATA-RATA</t>
   </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Rentang Waktu Awal      </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  Proses ( HH : mm )</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rentang Waktu Setelah</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  Proses Awal ( hh : mm )</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pub_key (d)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>priv_key (e)</t>
+    </r>
+  </si>
+  <si>
+    <t>GCD (φ (n) ,e ) = 1, sebanyak</t>
+  </si>
+  <si>
+    <t>menit</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>jam</t>
+  </si>
+  <si>
+    <t>ada 24 jenis gmt</t>
+  </si>
+  <si>
+    <t>RWAP</t>
+  </si>
+  <si>
+    <t>(HH:mm:ss)</t>
+  </si>
+  <si>
+    <t>RWSPA</t>
+  </si>
+  <si>
+    <t>(hh:mm:ss)</t>
+  </si>
+  <si>
+    <t>RNG</t>
+  </si>
+  <si>
+    <t>GMT POSISI</t>
+  </si>
+  <si>
+    <t>GCD</t>
+  </si>
+  <si>
+    <t>( p - 1, q - 1 )</t>
+  </si>
+  <si>
+    <t>GMT + 8</t>
+  </si>
+  <si>
+    <t>GMT +13</t>
+  </si>
+  <si>
+    <t>GMT +8</t>
+  </si>
+  <si>
+    <t>GMT -11</t>
+  </si>
+  <si>
+    <t>GMT -2</t>
+  </si>
+  <si>
+    <t>GMT +10</t>
+  </si>
+  <si>
+    <t>GMT +9</t>
+  </si>
+  <si>
+    <t>GMT +2</t>
+  </si>
+  <si>
+    <t>GMT +4</t>
+  </si>
+  <si>
+    <t>GMT +11</t>
+  </si>
+  <si>
+    <t>GMT +6</t>
+  </si>
+  <si>
+    <t>GMT +12</t>
+  </si>
+  <si>
+    <t>GMT +5</t>
+  </si>
+  <si>
+    <t>{23=1, 10=1, 1=1, 20=1, 19=1, 12=1, 18=2, 14=1, 21=2, 16=2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCD </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,6 +684,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -532,7 +727,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -709,11 +904,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -801,6 +1076,64 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -831,6 +1164,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -888,28 +1227,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1338,38 +1668,38 @@
   <sheetData>
     <row r="2" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="75"/>
     </row>
     <row r="4" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="78"/>
     </row>
     <row r="5" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="H5" s="41" t="s">
+      <c r="E5" s="70"/>
+      <c r="H5" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="42"/>
+      <c r="I5" s="70"/>
     </row>
     <row r="6" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="72"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="72"/>
     </row>
     <row r="7" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
@@ -1582,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="L80" sqref="E79:L80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,27 +1924,27 @@
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
     </row>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C2" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="83"/>
       <c r="I2" s="39"/>
       <c r="M2" s="31">
         <v>4814863028233940</v>
@@ -1624,13 +1954,13 @@
       <c r="C3" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="66"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="96"/>
       <c r="I3" s="39"/>
       <c r="M3" t="s">
         <v>92</v>
@@ -1638,55 +1968,55 @@
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" s="11"/>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="96"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="11"/>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="66"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="96"/>
       <c r="I5" s="39"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="11"/>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="96"/>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="11"/>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="96"/>
     </row>
     <row r="8" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="12"/>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="99"/>
       <c r="M8" t="s">
         <v>93</v>
       </c>
@@ -1695,13 +2025,13 @@
       <c r="C9" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="72"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="80"/>
       <c r="M9" t="s">
         <v>94</v>
       </c>
@@ -1966,26 +2296,26 @@
       <c r="C21" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="61" t="s">
+      <c r="D21" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="93"/>
       <c r="I21" s="31"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="63"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="93"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
@@ -2062,25 +2392,25 @@
       <c r="C48" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="54" t="s">
+      <c r="D48" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="56"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="86"/>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="57" t="s">
+      <c r="D49" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="59"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="89"/>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="11" t="s">
@@ -2302,77 +2632,77 @@
     </row>
     <row r="68" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="6:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F69" s="73" t="s">
+      <c r="F69" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="G69" s="74" t="s">
+      <c r="G69" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="H69" s="74" t="s">
+      <c r="H69" s="42" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="70" spans="6:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F70" s="75">
+      <c r="F70" s="43">
         <v>73</v>
       </c>
-      <c r="G70" s="76">
+      <c r="G70" s="44">
         <v>131</v>
       </c>
-      <c r="H70" s="76">
+      <c r="H70" s="44">
         <v>58</v>
       </c>
     </row>
     <row r="71" spans="6:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F71" s="75">
+      <c r="F71" s="43">
         <v>47</v>
       </c>
-      <c r="G71" s="76">
+      <c r="G71" s="44">
         <v>271</v>
       </c>
-      <c r="H71" s="76">
+      <c r="H71" s="44">
         <v>224</v>
       </c>
     </row>
     <row r="72" spans="6:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F72" s="75">
+      <c r="F72" s="43">
         <v>83</v>
       </c>
-      <c r="G72" s="76">
+      <c r="G72" s="44">
         <v>197</v>
       </c>
-      <c r="H72" s="76">
+      <c r="H72" s="44">
         <v>114</v>
       </c>
     </row>
     <row r="73" spans="6:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F73" s="75">
+      <c r="F73" s="43">
         <v>67</v>
       </c>
-      <c r="G73" s="76">
+      <c r="G73" s="44">
         <v>197</v>
       </c>
-      <c r="H73" s="76">
+      <c r="H73" s="44">
         <v>130</v>
       </c>
     </row>
     <row r="74" spans="6:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F74" s="75">
+      <c r="F74" s="43">
         <v>31</v>
       </c>
-      <c r="G74" s="76">
+      <c r="G74" s="44">
         <v>107</v>
       </c>
-      <c r="H74" s="76">
+      <c r="H74" s="44">
         <v>76</v>
       </c>
     </row>
     <row r="75" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F75" s="70" t="s">
+      <c r="F75" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="G75" s="72"/>
-      <c r="H75" s="77">
+      <c r="G75" s="80"/>
+      <c r="H75" s="45">
         <f>AVERAGE(H70:H74)</f>
         <v>120.4</v>
       </c>
@@ -2398,4 +2728,1987 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D5:Q10"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="7" width="8.7109375" customWidth="1"/>
+    <col min="13" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
+    <col min="16" max="16" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D8" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="L8" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="M8" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="N8" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="O8" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D9" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="54"/>
+    </row>
+    <row r="10" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D10" s="55">
+        <v>0.45837962962962964</v>
+      </c>
+      <c r="E10" s="56">
+        <v>1</v>
+      </c>
+      <c r="F10" s="56">
+        <v>2</v>
+      </c>
+      <c r="G10" s="56">
+        <v>3</v>
+      </c>
+      <c r="H10" s="57">
+        <v>0.45837962962962964</v>
+      </c>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56">
+        <v>1</v>
+      </c>
+      <c r="L10" s="56">
+        <v>2</v>
+      </c>
+      <c r="M10" s="56">
+        <v>1</v>
+      </c>
+      <c r="N10" s="56">
+        <v>2</v>
+      </c>
+      <c r="O10" s="56">
+        <v>1</v>
+      </c>
+      <c r="P10" s="58">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:T120"/>
+  <sheetViews>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="P85" sqref="P85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>128</v>
+      </c>
+      <c r="O61" t="s">
+        <v>129</v>
+      </c>
+      <c r="S61" t="s">
+        <v>128</v>
+      </c>
+      <c r="T61" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>60</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>20</v>
+      </c>
+      <c r="T62">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="63" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63">
+        <v>120</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>40</v>
+      </c>
+      <c r="T63">
+        <f>T62*2</f>
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="64" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>4</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+      <c r="O64">
+        <v>180</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64">
+        <v>60</v>
+      </c>
+      <c r="T64">
+        <f>T63+T62</f>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="65" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="N65">
+        <v>5</v>
+      </c>
+      <c r="O65">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="66" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>7</v>
+      </c>
+      <c r="K67">
+        <f>S68*2</f>
+        <v>5760</v>
+      </c>
+      <c r="N67" t="s">
+        <v>128</v>
+      </c>
+      <c r="O67" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>8</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>5</v>
+      </c>
+      <c r="O68">
+        <v>240</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="69" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>9</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>10</v>
+      </c>
+      <c r="O69">
+        <v>480</v>
+      </c>
+      <c r="Q69">
+        <v>2</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="70" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>10</v>
+      </c>
+      <c r="N70">
+        <v>15</v>
+      </c>
+      <c r="O70">
+        <v>720</v>
+      </c>
+      <c r="Q70">
+        <v>3</v>
+      </c>
+      <c r="S70">
+        <v>8640</v>
+      </c>
+    </row>
+    <row r="71" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>11</v>
+      </c>
+      <c r="N71">
+        <v>20</v>
+      </c>
+      <c r="O71">
+        <v>960</v>
+      </c>
+      <c r="Q71">
+        <v>4</v>
+      </c>
+      <c r="S71">
+        <v>11520</v>
+      </c>
+    </row>
+    <row r="72" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>12</v>
+      </c>
+      <c r="Q72">
+        <v>5</v>
+      </c>
+      <c r="S72">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="73" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>14</v>
+      </c>
+      <c r="L74" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>15</v>
+      </c>
+      <c r="L75">
+        <v>5</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="76" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>16</v>
+      </c>
+      <c r="L76">
+        <v>10</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="77" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>17</v>
+      </c>
+      <c r="L77">
+        <v>15</v>
+      </c>
+      <c r="N77">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="78" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>18</v>
+      </c>
+      <c r="L78">
+        <v>20</v>
+      </c>
+      <c r="N78">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="79" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>19</v>
+      </c>
+      <c r="L79">
+        <v>25</v>
+      </c>
+      <c r="N79">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="80" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>21</v>
+      </c>
+      <c r="L81">
+        <v>24</v>
+      </c>
+      <c r="N81">
+        <f>N79-S68</f>
+        <v>69120</v>
+      </c>
+    </row>
+    <row r="82" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>24</v>
+      </c>
+      <c r="P84" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <v>2</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:J38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="61"/>
+      <c r="F3" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="63" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="4:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4" s="64" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D5" s="66">
+        <v>0.45837962962962964</v>
+      </c>
+      <c r="E5" s="101">
+        <v>1</v>
+      </c>
+      <c r="F5" s="68">
+        <v>0.25005787037037036</v>
+      </c>
+      <c r="G5" s="101">
+        <v>23</v>
+      </c>
+      <c r="H5" s="101">
+        <v>97</v>
+      </c>
+      <c r="I5" s="101">
+        <v>227</v>
+      </c>
+      <c r="J5" s="101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="102"/>
+      <c r="F6" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="66">
+        <v>0.46186342592592594</v>
+      </c>
+      <c r="E7" s="101">
+        <v>2</v>
+      </c>
+      <c r="F7" s="68">
+        <v>0.25354166666666667</v>
+      </c>
+      <c r="G7" s="101">
+        <v>10</v>
+      </c>
+      <c r="H7" s="101">
+        <v>97</v>
+      </c>
+      <c r="I7" s="101">
+        <v>127</v>
+      </c>
+      <c r="J7" s="101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="102"/>
+      <c r="F8" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="66">
+        <v>0.46533564814814815</v>
+      </c>
+      <c r="E9" s="101">
+        <v>3</v>
+      </c>
+      <c r="F9" s="68">
+        <v>0.38201388888888888</v>
+      </c>
+      <c r="G9" s="101">
+        <v>1</v>
+      </c>
+      <c r="H9" s="101">
+        <v>157</v>
+      </c>
+      <c r="I9" s="101">
+        <v>467</v>
+      </c>
+      <c r="J9" s="101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="102"/>
+      <c r="F10" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="66">
+        <v>0.46883101851851849</v>
+      </c>
+      <c r="E11" s="101">
+        <v>4</v>
+      </c>
+      <c r="F11" s="68">
+        <v>0.38550925925925927</v>
+      </c>
+      <c r="G11" s="101">
+        <v>20</v>
+      </c>
+      <c r="H11" s="101">
+        <v>157</v>
+      </c>
+      <c r="I11" s="101">
+        <v>769</v>
+      </c>
+      <c r="J11" s="101">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="102"/>
+      <c r="F12" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="66">
+        <v>0.47228009259259257</v>
+      </c>
+      <c r="E13" s="101">
+        <v>5</v>
+      </c>
+      <c r="F13" s="68">
+        <v>0.43062500000000004</v>
+      </c>
+      <c r="G13" s="101">
+        <v>19</v>
+      </c>
+      <c r="H13" s="101">
+        <v>179</v>
+      </c>
+      <c r="I13" s="101">
+        <v>1229</v>
+      </c>
+      <c r="J13" s="101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="102"/>
+      <c r="F14" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="66">
+        <v>0.47574074074074074</v>
+      </c>
+      <c r="E15" s="101">
+        <v>6</v>
+      </c>
+      <c r="F15" s="68">
+        <v>0.22575231481481481</v>
+      </c>
+      <c r="G15" s="101">
+        <v>12</v>
+      </c>
+      <c r="H15" s="101">
+        <v>73</v>
+      </c>
+      <c r="I15" s="101">
+        <v>101</v>
+      </c>
+      <c r="J15" s="101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="102"/>
+      <c r="F16" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D17" s="66">
+        <v>0.47921296296296295</v>
+      </c>
+      <c r="E17" s="101">
+        <v>7</v>
+      </c>
+      <c r="F17" s="68">
+        <v>0.47922453703703699</v>
+      </c>
+      <c r="G17" s="101">
+        <v>18</v>
+      </c>
+      <c r="H17" s="101">
+        <v>197</v>
+      </c>
+      <c r="I17" s="101">
+        <v>2221</v>
+      </c>
+      <c r="J17" s="101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="102"/>
+      <c r="F18" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D19" s="66">
+        <v>0.48268518518518522</v>
+      </c>
+      <c r="E19" s="101">
+        <v>8</v>
+      </c>
+      <c r="F19" s="68">
+        <v>0.14936342592592591</v>
+      </c>
+      <c r="G19" s="101">
+        <v>14</v>
+      </c>
+      <c r="H19" s="101">
+        <v>41</v>
+      </c>
+      <c r="I19" s="101">
+        <v>151</v>
+      </c>
+      <c r="J19" s="101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="102"/>
+      <c r="F20" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="66">
+        <v>0.48616898148148152</v>
+      </c>
+      <c r="E21" s="101">
+        <v>9</v>
+      </c>
+      <c r="F21" s="68">
+        <v>0.36118055555555556</v>
+      </c>
+      <c r="G21" s="101">
+        <v>21</v>
+      </c>
+      <c r="H21" s="101">
+        <v>137</v>
+      </c>
+      <c r="I21" s="101">
+        <v>179</v>
+      </c>
+      <c r="J21" s="101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="102"/>
+      <c r="F22" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="66">
+        <v>0.48962962962962964</v>
+      </c>
+      <c r="E23" s="101">
+        <v>10</v>
+      </c>
+      <c r="F23" s="68">
+        <v>0.48964120370370368</v>
+      </c>
+      <c r="G23" s="101">
+        <v>18</v>
+      </c>
+      <c r="H23" s="101">
+        <v>197</v>
+      </c>
+      <c r="I23" s="101">
+        <v>199</v>
+      </c>
+      <c r="J23" s="101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="102"/>
+      <c r="F24" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="66">
+        <v>0.49311342592592594</v>
+      </c>
+      <c r="E25" s="101">
+        <v>11</v>
+      </c>
+      <c r="F25" s="68">
+        <v>0.36812500000000004</v>
+      </c>
+      <c r="G25" s="101">
+        <v>21</v>
+      </c>
+      <c r="H25" s="101">
+        <v>137</v>
+      </c>
+      <c r="I25" s="101">
+        <v>223</v>
+      </c>
+      <c r="J25" s="101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="102"/>
+      <c r="F26" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="102"/>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="66">
+        <v>0.49657407407407406</v>
+      </c>
+      <c r="E27" s="101">
+        <v>12</v>
+      </c>
+      <c r="F27" s="68">
+        <v>7.9907407407407413E-2</v>
+      </c>
+      <c r="G27" s="101">
+        <v>16</v>
+      </c>
+      <c r="H27" s="101">
+        <v>11</v>
+      </c>
+      <c r="I27" s="101">
+        <v>263</v>
+      </c>
+      <c r="J27" s="101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="102"/>
+      <c r="F28" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="66">
+        <v>0.50004629629629627</v>
+      </c>
+      <c r="E29" s="101">
+        <v>13</v>
+      </c>
+      <c r="F29" s="68">
+        <v>0.25005787037037036</v>
+      </c>
+      <c r="G29" s="101">
+        <v>12</v>
+      </c>
+      <c r="H29" s="101">
+        <v>97</v>
+      </c>
+      <c r="I29" s="101">
+        <v>227</v>
+      </c>
+      <c r="J29" s="101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="102"/>
+      <c r="F30" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="66">
+        <v>0.50004629629629627</v>
+      </c>
+      <c r="E31" s="101">
+        <v>14</v>
+      </c>
+      <c r="F31" s="68">
+        <v>0.29172453703703705</v>
+      </c>
+      <c r="G31" s="101">
+        <v>10</v>
+      </c>
+      <c r="H31" s="101">
+        <v>109</v>
+      </c>
+      <c r="I31" s="101">
+        <v>269</v>
+      </c>
+      <c r="J31" s="101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="102"/>
+      <c r="F32" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D33" s="66">
+        <v>0.50004629629629627</v>
+      </c>
+      <c r="E33" s="101">
+        <v>15</v>
+      </c>
+      <c r="F33" s="68">
+        <v>8.3391203703703717E-2</v>
+      </c>
+      <c r="G33" s="101">
+        <v>16</v>
+      </c>
+      <c r="H33" s="101">
+        <v>23</v>
+      </c>
+      <c r="I33" s="101">
+        <v>59</v>
+      </c>
+      <c r="J33" s="101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="102"/>
+      <c r="F34" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="102"/>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="66">
+        <v>0.50012731481481476</v>
+      </c>
+      <c r="E35" s="101">
+        <v>16</v>
+      </c>
+      <c r="F35" s="68">
+        <v>0.33347222222222223</v>
+      </c>
+      <c r="G35" s="101">
+        <v>22</v>
+      </c>
+      <c r="H35" s="101">
+        <v>137</v>
+      </c>
+      <c r="I35" s="101">
+        <v>313</v>
+      </c>
+      <c r="J35" s="101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="102"/>
+      <c r="F36" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D37" s="66">
+        <v>0.50005787037037031</v>
+      </c>
+      <c r="E37" s="101">
+        <v>17</v>
+      </c>
+      <c r="F37" s="68">
+        <v>0.12508101851851852</v>
+      </c>
+      <c r="G37" s="101">
+        <v>15</v>
+      </c>
+      <c r="H37" s="101">
+        <v>41</v>
+      </c>
+      <c r="I37" s="101">
+        <v>97</v>
+      </c>
+      <c r="J37" s="101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="102"/>
+      <c r="F38" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="102"/>
+    </row>
+  </sheetData>
+  <mergeCells count="85">
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:M33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>23</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J18" s="103" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J20" s="13">
+        <v>73</v>
+      </c>
+      <c r="K20" s="13">
+        <v>3251</v>
+      </c>
+      <c r="L20" s="13">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <f>K20-J20</f>
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="21" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J21" s="13">
+        <v>227</v>
+      </c>
+      <c r="K21" s="13">
+        <v>283</v>
+      </c>
+      <c r="L21" s="13">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ref="M21:M32" si="0">K21-J21</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J22" s="13">
+        <v>157</v>
+      </c>
+      <c r="K22" s="13">
+        <v>467</v>
+      </c>
+      <c r="L22" s="13">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J23" s="13">
+        <v>227</v>
+      </c>
+      <c r="K23" s="13">
+        <v>1087</v>
+      </c>
+      <c r="L23" s="13">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>860</v>
+      </c>
+    </row>
+    <row r="24" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J24" s="13">
+        <v>179</v>
+      </c>
+      <c r="K24" s="13">
+        <v>1229</v>
+      </c>
+      <c r="L24" s="13">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="25" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J25" s="13">
+        <v>73</v>
+      </c>
+      <c r="K25" s="13">
+        <v>101</v>
+      </c>
+      <c r="L25" s="13">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J26" s="13">
+        <v>197</v>
+      </c>
+      <c r="K26" s="13">
+        <v>2221</v>
+      </c>
+      <c r="L26" s="13">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="27" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J27" s="13">
+        <v>41</v>
+      </c>
+      <c r="K27" s="13">
+        <v>151</v>
+      </c>
+      <c r="L27" s="13">
+        <v>10</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J28" s="13">
+        <v>137</v>
+      </c>
+      <c r="K28" s="13">
+        <v>179</v>
+      </c>
+      <c r="L28" s="13">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J29" s="13">
+        <v>41</v>
+      </c>
+      <c r="K29" s="13">
+        <v>199</v>
+      </c>
+      <c r="L29" s="13">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J30" s="13">
+        <v>137</v>
+      </c>
+      <c r="K30" s="13">
+        <v>233</v>
+      </c>
+      <c r="L30" s="13">
+        <v>8</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J31" s="13">
+        <v>11</v>
+      </c>
+      <c r="K31" s="13">
+        <v>263</v>
+      </c>
+      <c r="L31" s="13">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J32" s="13">
+        <v>59</v>
+      </c>
+      <c r="K32" s="13">
+        <v>3271</v>
+      </c>
+      <c r="L32" s="13">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M33" s="104"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="J18:J19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel.xlsx
+++ b/excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2325" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -719,12 +719,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="24">
@@ -991,13 +997,6 @@
   <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -1134,36 +1133,7 @@
     <xf numFmtId="21" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1239,7 +1209,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1657,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:R31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,50 +1674,56 @@
   <sheetData>
     <row r="2" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="75"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="76"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="78"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="102"/>
     </row>
     <row r="5" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="H5" s="69" t="s">
+      <c r="E5" s="92"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="70"/>
+      <c r="I5" s="92"/>
     </row>
     <row r="6" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="71"/>
-      <c r="E6" s="72"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="72"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="104"/>
     </row>
     <row r="7" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="F7" s="89"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="94" t="s">
         <v>40</v>
       </c>
       <c r="R7" s="1" t="s">
@@ -1719,16 +1731,18 @@
       </c>
     </row>
     <row r="8" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="94" t="s">
         <v>41</v>
       </c>
       <c r="R8" s="1" t="s">
@@ -1736,16 +1750,18 @@
       </c>
     </row>
     <row r="9" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="F9" s="89"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="97" t="s">
         <v>42</v>
       </c>
       <c r="R9" s="1" t="s">
@@ -1753,16 +1769,18 @@
       </c>
     </row>
     <row r="10" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="F10" s="89"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="94" t="s">
         <v>43</v>
       </c>
       <c r="R10" s="1" t="s">
@@ -1770,29 +1788,33 @@
       </c>
     </row>
     <row r="11" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="F11" s="89"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="94" t="s">
         <v>44</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="6"/>
-      <c r="E12" s="7" t="s">
+    <row r="12" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D12" s="93"/>
+      <c r="E12" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5" t="s">
+      <c r="F12" s="89"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="94" t="s">
         <v>45</v>
       </c>
       <c r="R12" s="1" t="s">
@@ -1800,8 +1822,12 @@
       </c>
     </row>
     <row r="13" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="H13" s="4"/>
-      <c r="I13" s="5" t="s">
+      <c r="D13" s="93"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="94" t="s">
         <v>46</v>
       </c>
       <c r="R13" s="1" t="s">
@@ -1809,8 +1835,12 @@
       </c>
     </row>
     <row r="14" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="6"/>
-      <c r="I14" s="7" t="s">
+      <c r="D14" s="95"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="96" t="s">
         <v>47</v>
       </c>
       <c r="R14" s="1" t="s">
@@ -1912,7 +1942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M75"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L80" sqref="E79:L80"/>
     </sheetView>
   </sheetViews>
@@ -1928,180 +1958,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
     </row>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="39"/>
-      <c r="M2" s="31">
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="32"/>
+      <c r="M2" s="24">
         <v>4814863028233940</v>
       </c>
     </row>
     <row r="3" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="D3" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="39"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="32"/>
       <c r="M3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="11"/>
-      <c r="D4" s="94" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="39"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="11"/>
-      <c r="D5" s="94" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="39"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="11"/>
-      <c r="D6" s="94" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="96"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="11"/>
-      <c r="D7" s="94" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="96"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="80"/>
     </row>
     <row r="8" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="12"/>
-      <c r="D8" s="97" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="99"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="83"/>
       <c r="M8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="80"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="64"/>
       <c r="M9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="J10" s="40"/>
+      <c r="J10" s="33"/>
       <c r="M10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="26">
         <v>1</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="14">
         <v>2</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="26">
         <v>3</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="14">
         <v>4</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="26">
         <v>5</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
       <c r="M11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="27">
         <v>73</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="17">
         <v>47</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="27">
         <v>83</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="17">
         <v>67</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="27">
         <v>31</v>
       </c>
       <c r="M12" t="s">
@@ -2109,22 +2139,22 @@
       </c>
     </row>
     <row r="13" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="29">
         <v>131</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="22">
         <v>271</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="29">
         <v>197</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="22">
         <v>197</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="29">
         <v>197</v>
       </c>
       <c r="M13" t="s">
@@ -2132,22 +2162,22 @@
       </c>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="27">
         <v>9563</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="17">
         <v>12737</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="27">
         <v>16351</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="17">
         <v>13199</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="27">
         <v>6107</v>
       </c>
       <c r="M14" t="s">
@@ -2155,22 +2185,22 @@
       </c>
     </row>
     <row r="15" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="29">
         <v>9360</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="22">
         <v>1240</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="29">
         <v>16072</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="22">
         <v>12936</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="29">
         <v>5880</v>
       </c>
       <c r="M15" t="s">
@@ -2178,22 +2208,22 @@
       </c>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="28">
         <v>131</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="19">
         <v>227</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="28">
         <v>109</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="19">
         <v>173</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="28">
         <v>197</v>
       </c>
       <c r="M16" t="s">
@@ -2201,22 +2231,22 @@
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="28">
         <v>7931</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="19">
         <v>383</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="28">
         <v>2949</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="19">
         <v>5309</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="28">
         <v>1373</v>
       </c>
       <c r="M17" t="s">
@@ -2224,22 +2254,22 @@
       </c>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="28" t="s">
         <v>91</v>
       </c>
       <c r="M18" t="s">
@@ -2247,22 +2277,22 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="30">
         <v>2</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="31">
         <v>2</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="30">
         <v>2</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="31">
         <v>2</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="30">
         <v>2</v>
       </c>
       <c r="M19" t="s">
@@ -2273,49 +2303,49 @@
       <c r="B20" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="29">
         <v>2303</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="19">
         <v>3167</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="29">
         <v>6719</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="19">
         <v>3359</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="29">
         <v>3359</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="91" t="s">
+      <c r="D21" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="31"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="91" t="s">
+      <c r="D22" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="93"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
@@ -2389,320 +2419,320 @@
     </row>
     <row r="47" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="84" t="s">
+      <c r="D48" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="86"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="70"/>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="87" t="s">
+      <c r="D49" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="89"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="73"/>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F50" s="18" t="s">
+      <c r="F50" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="H50" s="19" t="s">
+      <c r="H50" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="51" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D51" s="14">
         <v>1</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E51" s="14">
         <v>2</v>
       </c>
-      <c r="F51" s="21">
+      <c r="F51" s="14">
         <v>3</v>
       </c>
-      <c r="G51" s="21">
+      <c r="G51" s="14">
         <v>4</v>
       </c>
-      <c r="H51" s="22">
+      <c r="H51" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="16">
         <v>73</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="17">
         <v>31</v>
       </c>
-      <c r="F52" s="24">
+      <c r="F52" s="17">
         <v>83</v>
       </c>
-      <c r="G52" s="24">
+      <c r="G52" s="17">
         <v>67</v>
       </c>
-      <c r="H52" s="25">
+      <c r="H52" s="18">
         <v>31</v>
       </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="7">
         <v>131</v>
       </c>
-      <c r="E53" s="26">
+      <c r="E53" s="19">
         <v>197</v>
       </c>
-      <c r="F53" s="26">
+      <c r="F53" s="19">
         <v>197</v>
       </c>
-      <c r="G53" s="26">
+      <c r="G53" s="19">
         <v>197</v>
       </c>
-      <c r="H53" s="27">
+      <c r="H53" s="20">
         <v>197</v>
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="7">
         <v>9563</v>
       </c>
-      <c r="E54" s="26">
+      <c r="E54" s="19">
         <v>6107</v>
       </c>
-      <c r="F54" s="26">
+      <c r="F54" s="19">
         <v>16351</v>
       </c>
-      <c r="G54" s="26">
+      <c r="G54" s="19">
         <v>13199</v>
       </c>
-      <c r="H54" s="27">
+      <c r="H54" s="20">
         <v>6107</v>
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C55" s="11"/>
-      <c r="D55" s="14">
+      <c r="C55" s="4"/>
+      <c r="D55" s="7">
         <v>9360</v>
       </c>
-      <c r="E55" s="26">
+      <c r="E55" s="19">
         <v>5880</v>
       </c>
-      <c r="F55" s="26">
+      <c r="F55" s="19">
         <v>16072</v>
       </c>
-      <c r="G55" s="26">
+      <c r="G55" s="19">
         <v>12936</v>
       </c>
-      <c r="H55" s="27">
+      <c r="H55" s="20">
         <v>5880</v>
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D56" s="7">
         <v>131</v>
       </c>
-      <c r="E56" s="26">
+      <c r="E56" s="19">
         <v>109</v>
       </c>
-      <c r="F56" s="26">
+      <c r="F56" s="19">
         <v>109</v>
       </c>
-      <c r="G56" s="26">
+      <c r="G56" s="19">
         <v>173</v>
       </c>
-      <c r="H56" s="27">
+      <c r="H56" s="20">
         <v>197</v>
       </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="7">
         <v>7931</v>
       </c>
-      <c r="E57" s="26">
+      <c r="E57" s="19">
         <v>8101</v>
       </c>
-      <c r="F57" s="26">
+      <c r="F57" s="19">
         <v>2949</v>
       </c>
-      <c r="G57" s="26">
+      <c r="G57" s="19">
         <v>5309</v>
       </c>
-      <c r="H57" s="27">
+      <c r="H57" s="20">
         <v>1373</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D58" s="14"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="27"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="20"/>
     </row>
     <row r="59" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D59" s="7">
         <v>2</v>
       </c>
-      <c r="E59" s="26">
+      <c r="E59" s="19">
         <v>2</v>
       </c>
-      <c r="F59" s="26">
+      <c r="F59" s="19">
         <v>2</v>
       </c>
-      <c r="G59" s="26">
+      <c r="G59" s="19">
         <v>2</v>
       </c>
-      <c r="H59" s="27">
+      <c r="H59" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D60" s="7">
         <v>2303</v>
       </c>
-      <c r="E60" s="26">
+      <c r="E60" s="19">
         <v>1343</v>
       </c>
-      <c r="F60" s="26">
+      <c r="F60" s="19">
         <v>6719</v>
       </c>
-      <c r="G60" s="26">
+      <c r="G60" s="19">
         <v>3359</v>
       </c>
-      <c r="H60" s="27">
+      <c r="H60" s="20">
         <v>3359</v>
       </c>
     </row>
     <row r="61" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D61" s="28"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="30"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="23"/>
     </row>
     <row r="68" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="6:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F69" s="41" t="s">
+      <c r="F69" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="G69" s="42" t="s">
+      <c r="G69" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="H69" s="42" t="s">
+      <c r="H69" s="35" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="70" spans="6:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F70" s="43">
+      <c r="F70" s="36">
         <v>73</v>
       </c>
-      <c r="G70" s="44">
+      <c r="G70" s="37">
         <v>131</v>
       </c>
-      <c r="H70" s="44">
+      <c r="H70" s="37">
         <v>58</v>
       </c>
     </row>
     <row r="71" spans="6:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F71" s="43">
+      <c r="F71" s="36">
         <v>47</v>
       </c>
-      <c r="G71" s="44">
+      <c r="G71" s="37">
         <v>271</v>
       </c>
-      <c r="H71" s="44">
+      <c r="H71" s="37">
         <v>224</v>
       </c>
     </row>
     <row r="72" spans="6:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F72" s="43">
+      <c r="F72" s="36">
         <v>83</v>
       </c>
-      <c r="G72" s="44">
+      <c r="G72" s="37">
         <v>197</v>
       </c>
-      <c r="H72" s="44">
+      <c r="H72" s="37">
         <v>114</v>
       </c>
     </row>
     <row r="73" spans="6:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F73" s="43">
+      <c r="F73" s="36">
         <v>67</v>
       </c>
-      <c r="G73" s="44">
+      <c r="G73" s="37">
         <v>197</v>
       </c>
-      <c r="H73" s="44">
+      <c r="H73" s="37">
         <v>130</v>
       </c>
     </row>
     <row r="74" spans="6:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F74" s="43">
+      <c r="F74" s="36">
         <v>31</v>
       </c>
-      <c r="G74" s="44">
+      <c r="G74" s="37">
         <v>107</v>
       </c>
-      <c r="H74" s="44">
+      <c r="H74" s="37">
         <v>76</v>
       </c>
     </row>
     <row r="75" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F75" s="79" t="s">
+      <c r="F75" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="G75" s="80"/>
-      <c r="H75" s="45">
+      <c r="G75" s="64"/>
+      <c r="H75" s="38">
         <f>AVERAGE(H70:H74)</f>
         <v>120.4</v>
       </c>
@@ -2734,7 +2764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:Q10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B28" workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
@@ -2754,95 +2784,95 @@
       </c>
     </row>
     <row r="8" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47" t="s">
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="L8" s="48" t="s">
+      <c r="L8" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="M8" s="49" t="s">
+      <c r="M8" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="N8" s="49" t="s">
+      <c r="N8" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="O8" s="48" t="s">
+      <c r="O8" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="P8" s="50" t="s">
+      <c r="P8" s="43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="53" t="s">
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="54"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="47"/>
     </row>
     <row r="10" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D10" s="55">
+      <c r="D10" s="48">
         <v>0.45837962962962964</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="49">
         <v>1</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="49">
         <v>2</v>
       </c>
-      <c r="G10" s="56">
+      <c r="G10" s="49">
         <v>3</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="50">
         <v>0.45837962962962964</v>
       </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56">
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49">
         <v>1</v>
       </c>
-      <c r="L10" s="56">
+      <c r="L10" s="49">
         <v>2</v>
       </c>
-      <c r="M10" s="56">
+      <c r="M10" s="49">
         <v>1</v>
       </c>
-      <c r="N10" s="56">
+      <c r="N10" s="49">
         <v>2</v>
       </c>
-      <c r="O10" s="56">
+      <c r="O10" s="49">
         <v>1</v>
       </c>
-      <c r="P10" s="58">
+      <c r="P10" s="51">
         <v>1</v>
       </c>
     </row>
@@ -2855,7 +2885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:T120"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P85" sqref="P85"/>
     </sheetView>
   </sheetViews>
@@ -3711,7 +3741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9:H10"/>
     </sheetView>
   </sheetViews>
@@ -3719,744 +3749,744 @@
   <sheetData>
     <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="63" t="s">
+      <c r="E3" s="54"/>
+      <c r="F3" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="63" t="s">
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="56" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="4" spans="4:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="I4" s="62" t="s">
+      <c r="I4" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="64" t="s">
+      <c r="J4" s="57" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D5" s="66">
+      <c r="D5" s="59">
         <v>0.45837962962962964</v>
       </c>
-      <c r="E5" s="101">
+      <c r="E5" s="85">
         <v>1</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="61">
         <v>0.25005787037037036</v>
       </c>
-      <c r="G5" s="101">
+      <c r="G5" s="85">
         <v>23</v>
       </c>
-      <c r="H5" s="101">
+      <c r="H5" s="85">
         <v>97</v>
       </c>
-      <c r="I5" s="101">
+      <c r="I5" s="85">
         <v>227</v>
       </c>
-      <c r="J5" s="101">
+      <c r="J5" s="85">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="102"/>
-      <c r="F6" s="62" t="s">
+      <c r="E6" s="86"/>
+      <c r="F6" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
     </row>
     <row r="7" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="66">
+      <c r="D7" s="59">
         <v>0.46186342592592594</v>
       </c>
-      <c r="E7" s="101">
+      <c r="E7" s="85">
         <v>2</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="61">
         <v>0.25354166666666667</v>
       </c>
-      <c r="G7" s="101">
+      <c r="G7" s="85">
         <v>10</v>
       </c>
-      <c r="H7" s="101">
+      <c r="H7" s="85">
         <v>97</v>
       </c>
-      <c r="I7" s="101">
+      <c r="I7" s="85">
         <v>127</v>
       </c>
-      <c r="J7" s="101">
+      <c r="J7" s="85">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="102"/>
-      <c r="F8" s="62" t="s">
+      <c r="E8" s="86"/>
+      <c r="F8" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
     </row>
     <row r="9" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="66">
+      <c r="D9" s="59">
         <v>0.46533564814814815</v>
       </c>
-      <c r="E9" s="101">
+      <c r="E9" s="85">
         <v>3</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="61">
         <v>0.38201388888888888</v>
       </c>
-      <c r="G9" s="101">
+      <c r="G9" s="85">
         <v>1</v>
       </c>
-      <c r="H9" s="101">
+      <c r="H9" s="85">
         <v>157</v>
       </c>
-      <c r="I9" s="101">
+      <c r="I9" s="85">
         <v>467</v>
       </c>
-      <c r="J9" s="101">
+      <c r="J9" s="85">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="102"/>
-      <c r="F10" s="62" t="s">
+      <c r="E10" s="86"/>
+      <c r="F10" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="66">
+      <c r="D11" s="59">
         <v>0.46883101851851849</v>
       </c>
-      <c r="E11" s="101">
+      <c r="E11" s="85">
         <v>4</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="61">
         <v>0.38550925925925927</v>
       </c>
-      <c r="G11" s="101">
+      <c r="G11" s="85">
         <v>20</v>
       </c>
-      <c r="H11" s="101">
+      <c r="H11" s="85">
         <v>157</v>
       </c>
-      <c r="I11" s="101">
+      <c r="I11" s="85">
         <v>769</v>
       </c>
-      <c r="J11" s="101">
+      <c r="J11" s="85">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E12" s="102"/>
-      <c r="F12" s="62" t="s">
+      <c r="E12" s="86"/>
+      <c r="F12" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="66">
+      <c r="D13" s="59">
         <v>0.47228009259259257</v>
       </c>
-      <c r="E13" s="101">
+      <c r="E13" s="85">
         <v>5</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="61">
         <v>0.43062500000000004</v>
       </c>
-      <c r="G13" s="101">
+      <c r="G13" s="85">
         <v>19</v>
       </c>
-      <c r="H13" s="101">
+      <c r="H13" s="85">
         <v>179</v>
       </c>
-      <c r="I13" s="101">
+      <c r="I13" s="85">
         <v>1229</v>
       </c>
-      <c r="J13" s="101">
+      <c r="J13" s="85">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="102"/>
-      <c r="F14" s="62" t="s">
+      <c r="E14" s="86"/>
+      <c r="F14" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
     </row>
     <row r="15" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="66">
+      <c r="D15" s="59">
         <v>0.47574074074074074</v>
       </c>
-      <c r="E15" s="101">
+      <c r="E15" s="85">
         <v>6</v>
       </c>
-      <c r="F15" s="68">
+      <c r="F15" s="61">
         <v>0.22575231481481481</v>
       </c>
-      <c r="G15" s="101">
+      <c r="G15" s="85">
         <v>12</v>
       </c>
-      <c r="H15" s="101">
+      <c r="H15" s="85">
         <v>73</v>
       </c>
-      <c r="I15" s="101">
+      <c r="I15" s="85">
         <v>101</v>
       </c>
-      <c r="J15" s="101">
+      <c r="J15" s="85">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="102"/>
-      <c r="F16" s="62" t="s">
+      <c r="E16" s="86"/>
+      <c r="F16" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D17" s="66">
+      <c r="D17" s="59">
         <v>0.47921296296296295</v>
       </c>
-      <c r="E17" s="101">
+      <c r="E17" s="85">
         <v>7</v>
       </c>
-      <c r="F17" s="68">
+      <c r="F17" s="61">
         <v>0.47922453703703699</v>
       </c>
-      <c r="G17" s="101">
+      <c r="G17" s="85">
         <v>18</v>
       </c>
-      <c r="H17" s="101">
+      <c r="H17" s="85">
         <v>197</v>
       </c>
-      <c r="I17" s="101">
+      <c r="I17" s="85">
         <v>2221</v>
       </c>
-      <c r="J17" s="101">
+      <c r="J17" s="85">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="102"/>
-      <c r="F18" s="62" t="s">
+      <c r="E18" s="86"/>
+      <c r="F18" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D19" s="66">
+      <c r="D19" s="59">
         <v>0.48268518518518522</v>
       </c>
-      <c r="E19" s="101">
+      <c r="E19" s="85">
         <v>8</v>
       </c>
-      <c r="F19" s="68">
+      <c r="F19" s="61">
         <v>0.14936342592592591</v>
       </c>
-      <c r="G19" s="101">
+      <c r="G19" s="85">
         <v>14</v>
       </c>
-      <c r="H19" s="101">
+      <c r="H19" s="85">
         <v>41</v>
       </c>
-      <c r="I19" s="101">
+      <c r="I19" s="85">
         <v>151</v>
       </c>
-      <c r="J19" s="101">
+      <c r="J19" s="85">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="67" t="s">
+      <c r="D20" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E20" s="102"/>
-      <c r="F20" s="62" t="s">
+      <c r="E20" s="86"/>
+      <c r="F20" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="102"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D21" s="66">
+      <c r="D21" s="59">
         <v>0.48616898148148152</v>
       </c>
-      <c r="E21" s="101">
+      <c r="E21" s="85">
         <v>9</v>
       </c>
-      <c r="F21" s="68">
+      <c r="F21" s="61">
         <v>0.36118055555555556</v>
       </c>
-      <c r="G21" s="101">
+      <c r="G21" s="85">
         <v>21</v>
       </c>
-      <c r="H21" s="101">
+      <c r="H21" s="85">
         <v>137</v>
       </c>
-      <c r="I21" s="101">
+      <c r="I21" s="85">
         <v>179</v>
       </c>
-      <c r="J21" s="101">
+      <c r="J21" s="85">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="67" t="s">
+      <c r="D22" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="102"/>
-      <c r="F22" s="62" t="s">
+      <c r="E22" s="86"/>
+      <c r="F22" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D23" s="66">
+      <c r="D23" s="59">
         <v>0.48962962962962964</v>
       </c>
-      <c r="E23" s="101">
+      <c r="E23" s="85">
         <v>10</v>
       </c>
-      <c r="F23" s="68">
+      <c r="F23" s="61">
         <v>0.48964120370370368</v>
       </c>
-      <c r="G23" s="101">
+      <c r="G23" s="85">
         <v>18</v>
       </c>
-      <c r="H23" s="101">
+      <c r="H23" s="85">
         <v>197</v>
       </c>
-      <c r="I23" s="101">
+      <c r="I23" s="85">
         <v>199</v>
       </c>
-      <c r="J23" s="101">
+      <c r="J23" s="85">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="67" t="s">
+      <c r="D24" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="102"/>
-      <c r="F24" s="62" t="s">
+      <c r="E24" s="86"/>
+      <c r="F24" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
     </row>
     <row r="25" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D25" s="66">
+      <c r="D25" s="59">
         <v>0.49311342592592594</v>
       </c>
-      <c r="E25" s="101">
+      <c r="E25" s="85">
         <v>11</v>
       </c>
-      <c r="F25" s="68">
+      <c r="F25" s="61">
         <v>0.36812500000000004</v>
       </c>
-      <c r="G25" s="101">
+      <c r="G25" s="85">
         <v>21</v>
       </c>
-      <c r="H25" s="101">
+      <c r="H25" s="85">
         <v>137</v>
       </c>
-      <c r="I25" s="101">
+      <c r="I25" s="85">
         <v>223</v>
       </c>
-      <c r="J25" s="101">
+      <c r="J25" s="85">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="102"/>
-      <c r="F26" s="62" t="s">
+      <c r="E26" s="86"/>
+      <c r="F26" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="102"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
     </row>
     <row r="27" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D27" s="66">
+      <c r="D27" s="59">
         <v>0.49657407407407406</v>
       </c>
-      <c r="E27" s="101">
+      <c r="E27" s="85">
         <v>12</v>
       </c>
-      <c r="F27" s="68">
+      <c r="F27" s="61">
         <v>7.9907407407407413E-2</v>
       </c>
-      <c r="G27" s="101">
+      <c r="G27" s="85">
         <v>16</v>
       </c>
-      <c r="H27" s="101">
+      <c r="H27" s="85">
         <v>11</v>
       </c>
-      <c r="I27" s="101">
+      <c r="I27" s="85">
         <v>263</v>
       </c>
-      <c r="J27" s="101">
+      <c r="J27" s="85">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="67" t="s">
+      <c r="D28" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E28" s="102"/>
-      <c r="F28" s="62" t="s">
+      <c r="E28" s="86"/>
+      <c r="F28" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
     </row>
     <row r="29" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D29" s="66">
+      <c r="D29" s="59">
         <v>0.50004629629629627</v>
       </c>
-      <c r="E29" s="101">
+      <c r="E29" s="85">
         <v>13</v>
       </c>
-      <c r="F29" s="68">
+      <c r="F29" s="61">
         <v>0.25005787037037036</v>
       </c>
-      <c r="G29" s="101">
+      <c r="G29" s="85">
         <v>12</v>
       </c>
-      <c r="H29" s="101">
+      <c r="H29" s="85">
         <v>97</v>
       </c>
-      <c r="I29" s="101">
+      <c r="I29" s="85">
         <v>227</v>
       </c>
-      <c r="J29" s="101">
+      <c r="J29" s="85">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="102"/>
-      <c r="F30" s="62" t="s">
+      <c r="E30" s="86"/>
+      <c r="F30" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="102"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D31" s="66">
+      <c r="D31" s="59">
         <v>0.50004629629629627</v>
       </c>
-      <c r="E31" s="101">
+      <c r="E31" s="85">
         <v>14</v>
       </c>
-      <c r="F31" s="68">
+      <c r="F31" s="61">
         <v>0.29172453703703705</v>
       </c>
-      <c r="G31" s="101">
+      <c r="G31" s="85">
         <v>10</v>
       </c>
-      <c r="H31" s="101">
+      <c r="H31" s="85">
         <v>109</v>
       </c>
-      <c r="I31" s="101">
+      <c r="I31" s="85">
         <v>269</v>
       </c>
-      <c r="J31" s="101">
+      <c r="J31" s="85">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="67" t="s">
+      <c r="D32" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="102"/>
-      <c r="F32" s="62" t="s">
+      <c r="E32" s="86"/>
+      <c r="F32" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="G32" s="102"/>
-      <c r="H32" s="102"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="102"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D33" s="66">
+      <c r="D33" s="59">
         <v>0.50004629629629627</v>
       </c>
-      <c r="E33" s="101">
+      <c r="E33" s="85">
         <v>15</v>
       </c>
-      <c r="F33" s="68">
+      <c r="F33" s="61">
         <v>8.3391203703703717E-2</v>
       </c>
-      <c r="G33" s="101">
+      <c r="G33" s="85">
         <v>16</v>
       </c>
-      <c r="H33" s="101">
+      <c r="H33" s="85">
         <v>23</v>
       </c>
-      <c r="I33" s="101">
+      <c r="I33" s="85">
         <v>59</v>
       </c>
-      <c r="J33" s="101">
+      <c r="J33" s="85">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E34" s="102"/>
-      <c r="F34" s="62" t="s">
+      <c r="E34" s="86"/>
+      <c r="F34" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="102"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D35" s="66">
+      <c r="D35" s="59">
         <v>0.50012731481481476</v>
       </c>
-      <c r="E35" s="101">
+      <c r="E35" s="85">
         <v>16</v>
       </c>
-      <c r="F35" s="68">
+      <c r="F35" s="61">
         <v>0.33347222222222223</v>
       </c>
-      <c r="G35" s="101">
+      <c r="G35" s="85">
         <v>22</v>
       </c>
-      <c r="H35" s="101">
+      <c r="H35" s="85">
         <v>137</v>
       </c>
-      <c r="I35" s="101">
+      <c r="I35" s="85">
         <v>313</v>
       </c>
-      <c r="J35" s="101">
+      <c r="J35" s="85">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="67" t="s">
+      <c r="D36" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="102"/>
-      <c r="F36" s="62" t="s">
+      <c r="E36" s="86"/>
+      <c r="F36" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="G36" s="102"/>
-      <c r="H36" s="102"/>
-      <c r="I36" s="102"/>
-      <c r="J36" s="102"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="86"/>
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D37" s="66">
+      <c r="D37" s="59">
         <v>0.50005787037037031</v>
       </c>
-      <c r="E37" s="101">
+      <c r="E37" s="85">
         <v>17</v>
       </c>
-      <c r="F37" s="68">
+      <c r="F37" s="61">
         <v>0.12508101851851852</v>
       </c>
-      <c r="G37" s="101">
+      <c r="G37" s="85">
         <v>15</v>
       </c>
-      <c r="H37" s="101">
+      <c r="H37" s="85">
         <v>41</v>
       </c>
-      <c r="I37" s="101">
+      <c r="I37" s="85">
         <v>97</v>
       </c>
-      <c r="J37" s="101">
+      <c r="J37" s="85">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="67" t="s">
+      <c r="D38" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E38" s="102"/>
-      <c r="F38" s="62" t="s">
+      <c r="E38" s="86"/>
+      <c r="F38" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="G38" s="102"/>
-      <c r="H38" s="102"/>
-      <c r="I38" s="102"/>
-      <c r="J38" s="102"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4466,7 +4496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
@@ -4489,31 +4519,31 @@
       </c>
     </row>
     <row r="18" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J18" s="103" t="s">
+      <c r="J18" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="103" t="s">
+      <c r="K18" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="6" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="19" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="13" t="s">
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="20" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J20" s="13">
+      <c r="J20" s="6">
         <v>73</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="6">
         <v>3251</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="6">
         <v>2</v>
       </c>
       <c r="M20">
@@ -4522,13 +4552,13 @@
       </c>
     </row>
     <row r="21" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J21" s="13">
+      <c r="J21" s="6">
         <v>227</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="6">
         <v>283</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="6">
         <v>2</v>
       </c>
       <c r="M21">
@@ -4537,13 +4567,13 @@
       </c>
     </row>
     <row r="22" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J22" s="13">
+      <c r="J22" s="6">
         <v>157</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="6">
         <v>467</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="6">
         <v>2</v>
       </c>
       <c r="M22">
@@ -4552,13 +4582,13 @@
       </c>
     </row>
     <row r="23" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J23" s="13">
+      <c r="J23" s="6">
         <v>227</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="6">
         <v>1087</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="6">
         <v>2</v>
       </c>
       <c r="M23">
@@ -4567,13 +4597,13 @@
       </c>
     </row>
     <row r="24" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J24" s="13">
+      <c r="J24" s="6">
         <v>179</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="6">
         <v>1229</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="6">
         <v>2</v>
       </c>
       <c r="M24">
@@ -4582,13 +4612,13 @@
       </c>
     </row>
     <row r="25" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J25" s="13">
+      <c r="J25" s="6">
         <v>73</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="6">
         <v>101</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="6">
         <v>4</v>
       </c>
       <c r="M25">
@@ -4597,13 +4627,13 @@
       </c>
     </row>
     <row r="26" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J26" s="13">
+      <c r="J26" s="6">
         <v>197</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="6">
         <v>2221</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="6">
         <v>4</v>
       </c>
       <c r="M26">
@@ -4612,13 +4642,13 @@
       </c>
     </row>
     <row r="27" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J27" s="13">
+      <c r="J27" s="6">
         <v>41</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="6">
         <v>151</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="6">
         <v>10</v>
       </c>
       <c r="M27">
@@ -4627,13 +4657,13 @@
       </c>
     </row>
     <row r="28" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J28" s="13">
+      <c r="J28" s="6">
         <v>137</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="6">
         <v>179</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="6">
         <v>2</v>
       </c>
       <c r="M28">
@@ -4642,13 +4672,13 @@
       </c>
     </row>
     <row r="29" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J29" s="13">
+      <c r="J29" s="6">
         <v>41</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="6">
         <v>199</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="6">
         <v>2</v>
       </c>
       <c r="M29">
@@ -4657,13 +4687,13 @@
       </c>
     </row>
     <row r="30" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J30" s="13">
+      <c r="J30" s="6">
         <v>137</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="6">
         <v>233</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L30" s="6">
         <v>8</v>
       </c>
       <c r="M30">
@@ -4672,13 +4702,13 @@
       </c>
     </row>
     <row r="31" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J31" s="13">
+      <c r="J31" s="6">
         <v>11</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="6">
         <v>263</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="6">
         <v>2</v>
       </c>
       <c r="M31">
@@ -4687,13 +4717,13 @@
       </c>
     </row>
     <row r="32" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J32" s="13">
+      <c r="J32" s="6">
         <v>59</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="6">
         <v>3271</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="6">
         <v>2</v>
       </c>
       <c r="M32">
@@ -4702,7 +4732,7 @@
       </c>
     </row>
     <row r="33" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M33" s="104"/>
+      <c r="M33" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2325"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2325" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
+    <sheet name="new" sheetId="6" r:id="rId7"/>
+    <sheet name="1new" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="175">
   <si>
     <t xml:space="preserve">        &lt;item&gt;GMT-1&lt;/item&gt; </t>
   </si>
@@ -626,6 +628,66 @@
   <si>
     <t xml:space="preserve">GCD </t>
   </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>informasi peranti waktu</t>
+  </si>
+  <si>
+    <t>arrayListPrimeNumber [n]</t>
+  </si>
+  <si>
+    <t>k[n] =</t>
+  </si>
+  <si>
+    <t>K[n]</t>
+  </si>
+  <si>
+    <t>k[31] =</t>
+  </si>
+  <si>
+    <t>RETURN value Kn as [n] as K[n]</t>
+  </si>
+  <si>
+    <t>K1 &lt; Kn &amp;&amp;  K1 != Kn</t>
+  </si>
+  <si>
+    <t>arrayListPrimeNumber [n].size</t>
+  </si>
+  <si>
+    <t>K1 &lt; K2 &amp;&amp;  K1 != K2</t>
+  </si>
+  <si>
+    <t>K1 &lt; K2 &amp;&amp;  K1 != K3</t>
+  </si>
+  <si>
+    <t>K1 &lt; K2 &amp;&amp;  K1 != K4</t>
+  </si>
+  <si>
+    <t>K1 &lt; K2 &amp;&amp;  K1 != K5</t>
+  </si>
+  <si>
+    <t>K1 &lt; K2 &amp;&amp;  K1 != K6</t>
+  </si>
+  <si>
+    <t>K[55]</t>
+  </si>
 </sst>
 </file>
 
@@ -634,7 +696,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -718,8 +780,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,6 +797,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,7 +1068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1134,97 +1208,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1237,13 +1242,126 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="21" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1377,6 +1495,76 @@
         <a:xfrm>
           <a:off x="8229600" y="2324100"/>
           <a:ext cx="323850" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2076450" y="2095500"/>
+          <a:ext cx="657225" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1663,7 +1851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:I14"/>
     </sheetView>
   </sheetViews>
@@ -1674,56 +1862,56 @@
   <sheetData>
     <row r="2" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D3" s="98" t="s">
+      <c r="D3" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="100"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="77"/>
     </row>
     <row r="4" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="101"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="102"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="80"/>
     </row>
     <row r="5" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="92"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="91" t="s">
+      <c r="E5" s="72"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="92"/>
+      <c r="I5" s="72"/>
     </row>
     <row r="6" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="103"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="104"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
     </row>
     <row r="7" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="89"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="93" t="s">
+      <c r="F7" s="64"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="94" t="s">
+      <c r="I7" s="67" t="s">
         <v>40</v>
       </c>
       <c r="R7" s="1" t="s">
@@ -1731,18 +1919,18 @@
       </c>
     </row>
     <row r="8" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="94" t="s">
+      <c r="E8" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="93" t="s">
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="94" t="s">
+      <c r="I8" s="67" t="s">
         <v>41</v>
       </c>
       <c r="R8" s="1" t="s">
@@ -1750,18 +1938,18 @@
       </c>
     </row>
     <row r="9" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="94" t="s">
+      <c r="E9" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="89"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="93" t="s">
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="97" t="s">
+      <c r="I9" s="70" t="s">
         <v>42</v>
       </c>
       <c r="R9" s="1" t="s">
@@ -1769,18 +1957,18 @@
       </c>
     </row>
     <row r="10" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="94" t="s">
+      <c r="E10" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="89"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="93" t="s">
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="94" t="s">
+      <c r="I10" s="67" t="s">
         <v>43</v>
       </c>
       <c r="R10" s="1" t="s">
@@ -1788,18 +1976,18 @@
       </c>
     </row>
     <row r="11" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D11" s="93" t="s">
+      <c r="D11" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="94" t="s">
+      <c r="E11" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="89"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="93" t="s">
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="94" t="s">
+      <c r="I11" s="67" t="s">
         <v>44</v>
       </c>
       <c r="R11" s="1" t="s">
@@ -1807,14 +1995,14 @@
       </c>
     </row>
     <row r="12" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D12" s="93"/>
-      <c r="E12" s="94" t="s">
+      <c r="D12" s="66"/>
+      <c r="E12" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="89"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="94" t="s">
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="67" t="s">
         <v>45</v>
       </c>
       <c r="R12" s="1" t="s">
@@ -1822,12 +2010,12 @@
       </c>
     </row>
     <row r="13" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D13" s="93"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="94" t="s">
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="67" t="s">
         <v>46</v>
       </c>
       <c r="R13" s="1" t="s">
@@ -1835,12 +2023,12 @@
       </c>
     </row>
     <row r="14" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="95"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="96" t="s">
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="69" t="s">
         <v>47</v>
       </c>
       <c r="R14" s="1" t="s">
@@ -1939,6 +2127,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M75"/>
   <sheetViews>
@@ -1958,23 +2158,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
     </row>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
       <c r="I2" s="32"/>
       <c r="M2" s="24">
         <v>4814863028233940</v>
@@ -1984,13 +2184,13 @@
       <c r="C3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="98"/>
       <c r="I3" s="32"/>
       <c r="M3" t="s">
         <v>92</v>
@@ -1998,55 +2198,55 @@
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" s="4"/>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="80"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="98"/>
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="98"/>
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="98"/>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="78" t="s">
+      <c r="D7" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="98"/>
     </row>
     <row r="8" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="5"/>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="83"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="101"/>
       <c r="M8" t="s">
         <v>93</v>
       </c>
@@ -2055,13 +2255,13 @@
       <c r="C9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="64"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="82"/>
       <c r="M9" t="s">
         <v>94</v>
       </c>
@@ -2326,26 +2526,26 @@
       <c r="C21" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="75" t="s">
+      <c r="D21" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="77"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="95"/>
       <c r="I21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="75" t="s">
+      <c r="D22" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="77"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="95"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
@@ -2422,25 +2622,25 @@
       <c r="C48" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="68" t="s">
+      <c r="D48" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="70"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="88"/>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="71" t="s">
+      <c r="D49" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="73"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="90"/>
+      <c r="H49" s="91"/>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="4" t="s">
@@ -2728,10 +2928,10 @@
       </c>
     </row>
     <row r="75" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F75" s="63" t="s">
+      <c r="F75" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="G75" s="64"/>
+      <c r="G75" s="82"/>
       <c r="H75" s="38">
         <f>AVERAGE(H70:H74)</f>
         <v>120.4</v>
@@ -2760,7 +2960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:Q10"/>
   <sheetViews>
@@ -2881,7 +3081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:T120"/>
   <sheetViews>
@@ -3737,7 +3937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:J38"/>
   <sheetViews>
@@ -3792,22 +3992,22 @@
       <c r="D5" s="59">
         <v>0.45837962962962964</v>
       </c>
-      <c r="E5" s="85">
+      <c r="E5" s="103">
         <v>1</v>
       </c>
       <c r="F5" s="61">
         <v>0.25005787037037036</v>
       </c>
-      <c r="G5" s="85">
+      <c r="G5" s="103">
         <v>23</v>
       </c>
-      <c r="H5" s="85">
+      <c r="H5" s="103">
         <v>97</v>
       </c>
-      <c r="I5" s="85">
+      <c r="I5" s="103">
         <v>227</v>
       </c>
-      <c r="J5" s="85">
+      <c r="J5" s="103">
         <v>2</v>
       </c>
     </row>
@@ -3815,35 +4015,35 @@
       <c r="D6" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="86"/>
+      <c r="E6" s="104"/>
       <c r="F6" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
     </row>
     <row r="7" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D7" s="59">
         <v>0.46186342592592594</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="103">
         <v>2</v>
       </c>
       <c r="F7" s="61">
         <v>0.25354166666666667</v>
       </c>
-      <c r="G7" s="85">
+      <c r="G7" s="103">
         <v>10</v>
       </c>
-      <c r="H7" s="85">
+      <c r="H7" s="103">
         <v>97</v>
       </c>
-      <c r="I7" s="85">
+      <c r="I7" s="103">
         <v>127</v>
       </c>
-      <c r="J7" s="85">
+      <c r="J7" s="103">
         <v>6</v>
       </c>
     </row>
@@ -3851,35 +4051,35 @@
       <c r="D8" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="86"/>
+      <c r="E8" s="104"/>
       <c r="F8" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
     </row>
     <row r="9" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D9" s="59">
         <v>0.46533564814814815</v>
       </c>
-      <c r="E9" s="85">
+      <c r="E9" s="103">
         <v>3</v>
       </c>
       <c r="F9" s="61">
         <v>0.38201388888888888</v>
       </c>
-      <c r="G9" s="85">
+      <c r="G9" s="103">
         <v>1</v>
       </c>
-      <c r="H9" s="85">
+      <c r="H9" s="103">
         <v>157</v>
       </c>
-      <c r="I9" s="85">
+      <c r="I9" s="103">
         <v>467</v>
       </c>
-      <c r="J9" s="85">
+      <c r="J9" s="103">
         <v>2</v>
       </c>
     </row>
@@ -3887,35 +4087,35 @@
       <c r="D10" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="86"/>
+      <c r="E10" s="104"/>
       <c r="F10" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D11" s="59">
         <v>0.46883101851851849</v>
       </c>
-      <c r="E11" s="85">
+      <c r="E11" s="103">
         <v>4</v>
       </c>
       <c r="F11" s="61">
         <v>0.38550925925925927</v>
       </c>
-      <c r="G11" s="85">
+      <c r="G11" s="103">
         <v>20</v>
       </c>
-      <c r="H11" s="85">
+      <c r="H11" s="103">
         <v>157</v>
       </c>
-      <c r="I11" s="85">
+      <c r="I11" s="103">
         <v>769</v>
       </c>
-      <c r="J11" s="85">
+      <c r="J11" s="103">
         <v>12</v>
       </c>
     </row>
@@ -3923,35 +4123,35 @@
       <c r="D12" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E12" s="86"/>
+      <c r="E12" s="104"/>
       <c r="F12" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D13" s="59">
         <v>0.47228009259259257</v>
       </c>
-      <c r="E13" s="85">
+      <c r="E13" s="103">
         <v>5</v>
       </c>
       <c r="F13" s="61">
         <v>0.43062500000000004</v>
       </c>
-      <c r="G13" s="85">
+      <c r="G13" s="103">
         <v>19</v>
       </c>
-      <c r="H13" s="85">
+      <c r="H13" s="103">
         <v>179</v>
       </c>
-      <c r="I13" s="85">
+      <c r="I13" s="103">
         <v>1229</v>
       </c>
-      <c r="J13" s="85">
+      <c r="J13" s="103">
         <v>2</v>
       </c>
     </row>
@@ -3959,35 +4159,35 @@
       <c r="D14" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="86"/>
+      <c r="E14" s="104"/>
       <c r="F14" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
     </row>
     <row r="15" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D15" s="59">
         <v>0.47574074074074074</v>
       </c>
-      <c r="E15" s="85">
+      <c r="E15" s="103">
         <v>6</v>
       </c>
       <c r="F15" s="61">
         <v>0.22575231481481481</v>
       </c>
-      <c r="G15" s="85">
+      <c r="G15" s="103">
         <v>12</v>
       </c>
-      <c r="H15" s="85">
+      <c r="H15" s="103">
         <v>73</v>
       </c>
-      <c r="I15" s="85">
+      <c r="I15" s="103">
         <v>101</v>
       </c>
-      <c r="J15" s="85">
+      <c r="J15" s="103">
         <v>4</v>
       </c>
     </row>
@@ -3995,35 +4195,35 @@
       <c r="D16" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="86"/>
+      <c r="E16" s="104"/>
       <c r="F16" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D17" s="59">
         <v>0.47921296296296295</v>
       </c>
-      <c r="E17" s="85">
+      <c r="E17" s="103">
         <v>7</v>
       </c>
       <c r="F17" s="61">
         <v>0.47922453703703699</v>
       </c>
-      <c r="G17" s="85">
+      <c r="G17" s="103">
         <v>18</v>
       </c>
-      <c r="H17" s="85">
+      <c r="H17" s="103">
         <v>197</v>
       </c>
-      <c r="I17" s="85">
+      <c r="I17" s="103">
         <v>2221</v>
       </c>
-      <c r="J17" s="85">
+      <c r="J17" s="103">
         <v>4</v>
       </c>
     </row>
@@ -4031,35 +4231,35 @@
       <c r="D18" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="86"/>
+      <c r="E18" s="104"/>
       <c r="F18" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D19" s="59">
         <v>0.48268518518518522</v>
       </c>
-      <c r="E19" s="85">
+      <c r="E19" s="103">
         <v>8</v>
       </c>
       <c r="F19" s="61">
         <v>0.14936342592592591</v>
       </c>
-      <c r="G19" s="85">
+      <c r="G19" s="103">
         <v>14</v>
       </c>
-      <c r="H19" s="85">
+      <c r="H19" s="103">
         <v>41</v>
       </c>
-      <c r="I19" s="85">
+      <c r="I19" s="103">
         <v>151</v>
       </c>
-      <c r="J19" s="85">
+      <c r="J19" s="103">
         <v>10</v>
       </c>
     </row>
@@ -4067,35 +4267,35 @@
       <c r="D20" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E20" s="86"/>
+      <c r="E20" s="104"/>
       <c r="F20" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D21" s="59">
         <v>0.48616898148148152</v>
       </c>
-      <c r="E21" s="85">
+      <c r="E21" s="103">
         <v>9</v>
       </c>
       <c r="F21" s="61">
         <v>0.36118055555555556</v>
       </c>
-      <c r="G21" s="85">
+      <c r="G21" s="103">
         <v>21</v>
       </c>
-      <c r="H21" s="85">
+      <c r="H21" s="103">
         <v>137</v>
       </c>
-      <c r="I21" s="85">
+      <c r="I21" s="103">
         <v>179</v>
       </c>
-      <c r="J21" s="85">
+      <c r="J21" s="103">
         <v>2</v>
       </c>
     </row>
@@ -4103,35 +4303,35 @@
       <c r="D22" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="86"/>
+      <c r="E22" s="104"/>
       <c r="F22" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D23" s="59">
         <v>0.48962962962962964</v>
       </c>
-      <c r="E23" s="85">
+      <c r="E23" s="103">
         <v>10</v>
       </c>
       <c r="F23" s="61">
         <v>0.48964120370370368</v>
       </c>
-      <c r="G23" s="85">
+      <c r="G23" s="103">
         <v>18</v>
       </c>
-      <c r="H23" s="85">
+      <c r="H23" s="103">
         <v>197</v>
       </c>
-      <c r="I23" s="85">
+      <c r="I23" s="103">
         <v>199</v>
       </c>
-      <c r="J23" s="85">
+      <c r="J23" s="103">
         <v>2</v>
       </c>
     </row>
@@ -4139,35 +4339,35 @@
       <c r="D24" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="86"/>
+      <c r="E24" s="104"/>
       <c r="F24" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
     </row>
     <row r="25" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D25" s="59">
         <v>0.49311342592592594</v>
       </c>
-      <c r="E25" s="85">
+      <c r="E25" s="103">
         <v>11</v>
       </c>
       <c r="F25" s="61">
         <v>0.36812500000000004</v>
       </c>
-      <c r="G25" s="85">
+      <c r="G25" s="103">
         <v>21</v>
       </c>
-      <c r="H25" s="85">
+      <c r="H25" s="103">
         <v>137</v>
       </c>
-      <c r="I25" s="85">
+      <c r="I25" s="103">
         <v>223</v>
       </c>
-      <c r="J25" s="85">
+      <c r="J25" s="103">
         <v>8</v>
       </c>
     </row>
@@ -4175,35 +4375,35 @@
       <c r="D26" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="86"/>
+      <c r="E26" s="104"/>
       <c r="F26" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
     </row>
     <row r="27" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D27" s="59">
         <v>0.49657407407407406</v>
       </c>
-      <c r="E27" s="85">
+      <c r="E27" s="103">
         <v>12</v>
       </c>
       <c r="F27" s="61">
         <v>7.9907407407407413E-2</v>
       </c>
-      <c r="G27" s="85">
+      <c r="G27" s="103">
         <v>16</v>
       </c>
-      <c r="H27" s="85">
+      <c r="H27" s="103">
         <v>11</v>
       </c>
-      <c r="I27" s="85">
+      <c r="I27" s="103">
         <v>263</v>
       </c>
-      <c r="J27" s="85">
+      <c r="J27" s="103">
         <v>2</v>
       </c>
     </row>
@@ -4211,35 +4411,35 @@
       <c r="D28" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E28" s="86"/>
+      <c r="E28" s="104"/>
       <c r="F28" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="104"/>
     </row>
     <row r="29" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D29" s="59">
         <v>0.50004629629629627</v>
       </c>
-      <c r="E29" s="85">
+      <c r="E29" s="103">
         <v>13</v>
       </c>
       <c r="F29" s="61">
         <v>0.25005787037037036</v>
       </c>
-      <c r="G29" s="85">
+      <c r="G29" s="103">
         <v>12</v>
       </c>
-      <c r="H29" s="85">
+      <c r="H29" s="103">
         <v>97</v>
       </c>
-      <c r="I29" s="85">
+      <c r="I29" s="103">
         <v>227</v>
       </c>
-      <c r="J29" s="85">
+      <c r="J29" s="103">
         <v>2</v>
       </c>
     </row>
@@ -4247,35 +4447,35 @@
       <c r="D30" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="86"/>
+      <c r="E30" s="104"/>
       <c r="F30" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
     </row>
     <row r="31" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D31" s="59">
         <v>0.50004629629629627</v>
       </c>
-      <c r="E31" s="85">
+      <c r="E31" s="103">
         <v>14</v>
       </c>
       <c r="F31" s="61">
         <v>0.29172453703703705</v>
       </c>
-      <c r="G31" s="85">
+      <c r="G31" s="103">
         <v>10</v>
       </c>
-      <c r="H31" s="85">
+      <c r="H31" s="103">
         <v>109</v>
       </c>
-      <c r="I31" s="85">
+      <c r="I31" s="103">
         <v>269</v>
       </c>
-      <c r="J31" s="85">
+      <c r="J31" s="103">
         <v>4</v>
       </c>
     </row>
@@ -4283,35 +4483,35 @@
       <c r="D32" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="86"/>
+      <c r="E32" s="104"/>
       <c r="F32" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="86"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D33" s="59">
         <v>0.50004629629629627</v>
       </c>
-      <c r="E33" s="85">
+      <c r="E33" s="103">
         <v>15</v>
       </c>
       <c r="F33" s="61">
         <v>8.3391203703703717E-2</v>
       </c>
-      <c r="G33" s="85">
+      <c r="G33" s="103">
         <v>16</v>
       </c>
-      <c r="H33" s="85">
+      <c r="H33" s="103">
         <v>23</v>
       </c>
-      <c r="I33" s="85">
+      <c r="I33" s="103">
         <v>59</v>
       </c>
-      <c r="J33" s="85">
+      <c r="J33" s="103">
         <v>2</v>
       </c>
     </row>
@@ -4319,35 +4519,35 @@
       <c r="D34" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E34" s="86"/>
+      <c r="E34" s="104"/>
       <c r="F34" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="104"/>
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D35" s="59">
         <v>0.50012731481481476</v>
       </c>
-      <c r="E35" s="85">
+      <c r="E35" s="103">
         <v>16</v>
       </c>
       <c r="F35" s="61">
         <v>0.33347222222222223</v>
       </c>
-      <c r="G35" s="85">
+      <c r="G35" s="103">
         <v>22</v>
       </c>
-      <c r="H35" s="85">
+      <c r="H35" s="103">
         <v>137</v>
       </c>
-      <c r="I35" s="85">
+      <c r="I35" s="103">
         <v>313</v>
       </c>
-      <c r="J35" s="85">
+      <c r="J35" s="103">
         <v>8</v>
       </c>
     </row>
@@ -4355,35 +4555,35 @@
       <c r="D36" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="86"/>
+      <c r="E36" s="104"/>
       <c r="F36" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="86"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="104"/>
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D37" s="59">
         <v>0.50005787037037031</v>
       </c>
-      <c r="E37" s="85">
+      <c r="E37" s="103">
         <v>17</v>
       </c>
       <c r="F37" s="61">
         <v>0.12508101851851852</v>
       </c>
-      <c r="G37" s="85">
+      <c r="G37" s="103">
         <v>15</v>
       </c>
-      <c r="H37" s="85">
+      <c r="H37" s="103">
         <v>41</v>
       </c>
-      <c r="I37" s="85">
+      <c r="I37" s="103">
         <v>97</v>
       </c>
-      <c r="J37" s="85">
+      <c r="J37" s="103">
         <v>8</v>
       </c>
     </row>
@@ -4391,113 +4591,113 @@
       <c r="D38" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E38" s="86"/>
+      <c r="E38" s="104"/>
       <c r="F38" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="G38" s="86"/>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="86"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="I37:I38"/>
     <mergeCell ref="J37:J38"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4519,10 +4719,10 @@
       </c>
     </row>
     <row r="18" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J18" s="87" t="s">
+      <c r="J18" s="105" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="87" t="s">
+      <c r="K18" s="105" t="s">
         <v>116</v>
       </c>
       <c r="L18" s="6" t="s">
@@ -4530,8 +4730,8 @@
       </c>
     </row>
     <row r="19" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
       <c r="L19" s="6" t="s">
         <v>139</v>
       </c>
@@ -4741,4 +4941,183 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="119" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="116">
+        <v>0.62883101851851853</v>
+      </c>
+      <c r="H5" s="115"/>
+    </row>
+    <row r="6" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="102"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="118">
+        <v>478</v>
+      </c>
+      <c r="H6" s="115"/>
+    </row>
+    <row r="7" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="30">
+        <v>36</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="H7" s="107"/>
+      <c r="J7" s="106" t="s">
+        <v>167</v>
+      </c>
+      <c r="K7" s="106"/>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D8" s="122" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="121">
+        <v>55</v>
+      </c>
+      <c r="F8" s="122" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="120" t="b">
+        <f>E$7&lt; E8</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="63"/>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D9" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="28">
+        <v>49</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" s="4" t="b">
+        <f t="shared" ref="G9:G12" si="0">E$7&lt; E9</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="63"/>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="28">
+        <v>104</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="63"/>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="28">
+        <v>495</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="63"/>
+    </row>
+    <row r="12" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="28">
+        <v>2695</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="63"/>
+    </row>
+    <row r="13" spans="4:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D14" s="108" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="90" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" s="90"/>
+      <c r="G14" s="91"/>
+    </row>
+    <row r="15" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="109" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="112">
+        <v>263</v>
+      </c>
+      <c r="F15" s="110"/>
+      <c r="G15" s="111"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="E14:G14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/excel.xlsx
+++ b/excel.xlsx
@@ -22,6 +22,7 @@
     <sheet name="1new" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="177">
   <si>
     <t xml:space="preserve">        &lt;item&gt;GMT-1&lt;/item&gt; </t>
   </si>
@@ -674,19 +675,48 @@
     <t>K1 &lt; K2 &amp;&amp;  K1 != K2</t>
   </si>
   <si>
-    <t>K1 &lt; K2 &amp;&amp;  K1 != K3</t>
-  </si>
-  <si>
-    <t>K1 &lt; K2 &amp;&amp;  K1 != K4</t>
-  </si>
-  <si>
-    <t>K1 &lt; K2 &amp;&amp;  K1 != K5</t>
-  </si>
-  <si>
-    <t>K1 &lt; K2 &amp;&amp;  K1 != K6</t>
-  </si>
-  <si>
     <t>K[55]</t>
+  </si>
+  <si>
+    <t>K1 &lt; K3 &amp;&amp;  K1 != K3</t>
+  </si>
+  <si>
+    <t>K1 &lt; K4 &amp;&amp;  K1 != K4</t>
+  </si>
+  <si>
+    <t>K1 &lt; K5 &amp;&amp;  K1 != K5</t>
+  </si>
+  <si>
+    <t>K1 &lt; K6 &amp;&amp;  K1 != K6</t>
+  </si>
+  <si>
+    <t>K[(jml prima-k1)]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n = 0 ( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -787,7 +817,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -803,6 +833,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,7 +1104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1218,108 +1254,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1328,9 +1262,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1338,30 +1269,146 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="21" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="21" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1521,15 +1568,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>189672</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>877957</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1563,8 +1610,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2076450" y="2095500"/>
-          <a:ext cx="657225" cy="200025"/>
+          <a:off x="1904172" y="2517913"/>
+          <a:ext cx="688285" cy="180974"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1862,42 +1909,42 @@
   <sheetData>
     <row r="2" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="77"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="89"/>
     </row>
     <row r="4" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="80"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="92"/>
     </row>
     <row r="5" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="72"/>
+      <c r="E5" s="84"/>
       <c r="F5" s="64"/>
       <c r="G5" s="65"/>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="72"/>
+      <c r="I5" s="84"/>
     </row>
     <row r="6" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="73"/>
-      <c r="E6" s="74"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="86"/>
       <c r="F6" s="64"/>
       <c r="G6" s="65"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="86"/>
     </row>
     <row r="7" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D7" s="66" t="s">
@@ -2158,23 +2205,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
     </row>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="85"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="97"/>
       <c r="I2" s="32"/>
       <c r="M2" s="24">
         <v>4814863028233940</v>
@@ -2184,13 +2231,13 @@
       <c r="C3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="96" t="s">
+      <c r="D3" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="98"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="110"/>
       <c r="I3" s="32"/>
       <c r="M3" t="s">
         <v>92</v>
@@ -2198,55 +2245,55 @@
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" s="4"/>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="98"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="110"/>
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="98"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="110"/>
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="98"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="110"/>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="98"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="110"/>
     </row>
     <row r="8" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="5"/>
-      <c r="D8" s="99" t="s">
+      <c r="D8" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="101"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="113"/>
       <c r="M8" t="s">
         <v>93</v>
       </c>
@@ -2255,13 +2302,13 @@
       <c r="C9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="82"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="94"/>
       <c r="M9" t="s">
         <v>94</v>
       </c>
@@ -2526,26 +2573,26 @@
       <c r="C21" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="93" t="s">
+      <c r="D21" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="95"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="107"/>
       <c r="I21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="93" t="s">
+      <c r="D22" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="95"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="107"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
@@ -2622,25 +2669,25 @@
       <c r="C48" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="86" t="s">
+      <c r="D48" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="88"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="100"/>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="89" t="s">
+      <c r="D49" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="91"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="102"/>
+      <c r="H49" s="103"/>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="4" t="s">
@@ -2928,10 +2975,10 @@
       </c>
     </row>
     <row r="75" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F75" s="81" t="s">
+      <c r="F75" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="G75" s="82"/>
+      <c r="G75" s="94"/>
       <c r="H75" s="38">
         <f>AVERAGE(H70:H74)</f>
         <v>120.4</v>
@@ -3992,22 +4039,22 @@
       <c r="D5" s="59">
         <v>0.45837962962962964</v>
       </c>
-      <c r="E5" s="103">
+      <c r="E5" s="115">
         <v>1</v>
       </c>
       <c r="F5" s="61">
         <v>0.25005787037037036</v>
       </c>
-      <c r="G5" s="103">
+      <c r="G5" s="115">
         <v>23</v>
       </c>
-      <c r="H5" s="103">
+      <c r="H5" s="115">
         <v>97</v>
       </c>
-      <c r="I5" s="103">
+      <c r="I5" s="115">
         <v>227</v>
       </c>
-      <c r="J5" s="103">
+      <c r="J5" s="115">
         <v>2</v>
       </c>
     </row>
@@ -4015,35 +4062,35 @@
       <c r="D6" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="104"/>
+      <c r="E6" s="116"/>
       <c r="F6" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
     </row>
     <row r="7" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D7" s="59">
         <v>0.46186342592592594</v>
       </c>
-      <c r="E7" s="103">
+      <c r="E7" s="115">
         <v>2</v>
       </c>
       <c r="F7" s="61">
         <v>0.25354166666666667</v>
       </c>
-      <c r="G7" s="103">
+      <c r="G7" s="115">
         <v>10</v>
       </c>
-      <c r="H7" s="103">
+      <c r="H7" s="115">
         <v>97</v>
       </c>
-      <c r="I7" s="103">
+      <c r="I7" s="115">
         <v>127</v>
       </c>
-      <c r="J7" s="103">
+      <c r="J7" s="115">
         <v>6</v>
       </c>
     </row>
@@ -4051,35 +4098,35 @@
       <c r="D8" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="104"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
     </row>
     <row r="9" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D9" s="59">
         <v>0.46533564814814815</v>
       </c>
-      <c r="E9" s="103">
+      <c r="E9" s="115">
         <v>3</v>
       </c>
       <c r="F9" s="61">
         <v>0.38201388888888888</v>
       </c>
-      <c r="G9" s="103">
+      <c r="G9" s="115">
         <v>1</v>
       </c>
-      <c r="H9" s="103">
+      <c r="H9" s="115">
         <v>157</v>
       </c>
-      <c r="I9" s="103">
+      <c r="I9" s="115">
         <v>467</v>
       </c>
-      <c r="J9" s="103">
+      <c r="J9" s="115">
         <v>2</v>
       </c>
     </row>
@@ -4087,35 +4134,35 @@
       <c r="D10" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="104"/>
+      <c r="E10" s="116"/>
       <c r="F10" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D11" s="59">
         <v>0.46883101851851849</v>
       </c>
-      <c r="E11" s="103">
+      <c r="E11" s="115">
         <v>4</v>
       </c>
       <c r="F11" s="61">
         <v>0.38550925925925927</v>
       </c>
-      <c r="G11" s="103">
+      <c r="G11" s="115">
         <v>20</v>
       </c>
-      <c r="H11" s="103">
+      <c r="H11" s="115">
         <v>157</v>
       </c>
-      <c r="I11" s="103">
+      <c r="I11" s="115">
         <v>769</v>
       </c>
-      <c r="J11" s="103">
+      <c r="J11" s="115">
         <v>12</v>
       </c>
     </row>
@@ -4123,35 +4170,35 @@
       <c r="D12" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E12" s="104"/>
+      <c r="E12" s="116"/>
       <c r="F12" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D13" s="59">
         <v>0.47228009259259257</v>
       </c>
-      <c r="E13" s="103">
+      <c r="E13" s="115">
         <v>5</v>
       </c>
       <c r="F13" s="61">
         <v>0.43062500000000004</v>
       </c>
-      <c r="G13" s="103">
+      <c r="G13" s="115">
         <v>19</v>
       </c>
-      <c r="H13" s="103">
+      <c r="H13" s="115">
         <v>179</v>
       </c>
-      <c r="I13" s="103">
+      <c r="I13" s="115">
         <v>1229</v>
       </c>
-      <c r="J13" s="103">
+      <c r="J13" s="115">
         <v>2</v>
       </c>
     </row>
@@ -4159,35 +4206,35 @@
       <c r="D14" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="104"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
     </row>
     <row r="15" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D15" s="59">
         <v>0.47574074074074074</v>
       </c>
-      <c r="E15" s="103">
+      <c r="E15" s="115">
         <v>6</v>
       </c>
       <c r="F15" s="61">
         <v>0.22575231481481481</v>
       </c>
-      <c r="G15" s="103">
+      <c r="G15" s="115">
         <v>12</v>
       </c>
-      <c r="H15" s="103">
+      <c r="H15" s="115">
         <v>73</v>
       </c>
-      <c r="I15" s="103">
+      <c r="I15" s="115">
         <v>101</v>
       </c>
-      <c r="J15" s="103">
+      <c r="J15" s="115">
         <v>4</v>
       </c>
     </row>
@@ -4195,35 +4242,35 @@
       <c r="D16" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="104"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D17" s="59">
         <v>0.47921296296296295</v>
       </c>
-      <c r="E17" s="103">
+      <c r="E17" s="115">
         <v>7</v>
       </c>
       <c r="F17" s="61">
         <v>0.47922453703703699</v>
       </c>
-      <c r="G17" s="103">
+      <c r="G17" s="115">
         <v>18</v>
       </c>
-      <c r="H17" s="103">
+      <c r="H17" s="115">
         <v>197</v>
       </c>
-      <c r="I17" s="103">
+      <c r="I17" s="115">
         <v>2221</v>
       </c>
-      <c r="J17" s="103">
+      <c r="J17" s="115">
         <v>4</v>
       </c>
     </row>
@@ -4231,35 +4278,35 @@
       <c r="D18" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="104"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116"/>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D19" s="59">
         <v>0.48268518518518522</v>
       </c>
-      <c r="E19" s="103">
+      <c r="E19" s="115">
         <v>8</v>
       </c>
       <c r="F19" s="61">
         <v>0.14936342592592591</v>
       </c>
-      <c r="G19" s="103">
+      <c r="G19" s="115">
         <v>14</v>
       </c>
-      <c r="H19" s="103">
+      <c r="H19" s="115">
         <v>41</v>
       </c>
-      <c r="I19" s="103">
+      <c r="I19" s="115">
         <v>151</v>
       </c>
-      <c r="J19" s="103">
+      <c r="J19" s="115">
         <v>10</v>
       </c>
     </row>
@@ -4267,35 +4314,35 @@
       <c r="D20" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E20" s="104"/>
+      <c r="E20" s="116"/>
       <c r="F20" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="116"/>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D21" s="59">
         <v>0.48616898148148152</v>
       </c>
-      <c r="E21" s="103">
+      <c r="E21" s="115">
         <v>9</v>
       </c>
       <c r="F21" s="61">
         <v>0.36118055555555556</v>
       </c>
-      <c r="G21" s="103">
+      <c r="G21" s="115">
         <v>21</v>
       </c>
-      <c r="H21" s="103">
+      <c r="H21" s="115">
         <v>137</v>
       </c>
-      <c r="I21" s="103">
+      <c r="I21" s="115">
         <v>179</v>
       </c>
-      <c r="J21" s="103">
+      <c r="J21" s="115">
         <v>2</v>
       </c>
     </row>
@@ -4303,35 +4350,35 @@
       <c r="D22" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="104"/>
+      <c r="E22" s="116"/>
       <c r="F22" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116"/>
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D23" s="59">
         <v>0.48962962962962964</v>
       </c>
-      <c r="E23" s="103">
+      <c r="E23" s="115">
         <v>10</v>
       </c>
       <c r="F23" s="61">
         <v>0.48964120370370368</v>
       </c>
-      <c r="G23" s="103">
+      <c r="G23" s="115">
         <v>18</v>
       </c>
-      <c r="H23" s="103">
+      <c r="H23" s="115">
         <v>197</v>
       </c>
-      <c r="I23" s="103">
+      <c r="I23" s="115">
         <v>199</v>
       </c>
-      <c r="J23" s="103">
+      <c r="J23" s="115">
         <v>2</v>
       </c>
     </row>
@@ -4339,35 +4386,35 @@
       <c r="D24" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="104"/>
+      <c r="E24" s="116"/>
       <c r="F24" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="104"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="116"/>
     </row>
     <row r="25" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D25" s="59">
         <v>0.49311342592592594</v>
       </c>
-      <c r="E25" s="103">
+      <c r="E25" s="115">
         <v>11</v>
       </c>
       <c r="F25" s="61">
         <v>0.36812500000000004</v>
       </c>
-      <c r="G25" s="103">
+      <c r="G25" s="115">
         <v>21</v>
       </c>
-      <c r="H25" s="103">
+      <c r="H25" s="115">
         <v>137</v>
       </c>
-      <c r="I25" s="103">
+      <c r="I25" s="115">
         <v>223</v>
       </c>
-      <c r="J25" s="103">
+      <c r="J25" s="115">
         <v>8</v>
       </c>
     </row>
@@ -4375,35 +4422,35 @@
       <c r="D26" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="104"/>
+      <c r="E26" s="116"/>
       <c r="F26" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="116"/>
     </row>
     <row r="27" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D27" s="59">
         <v>0.49657407407407406</v>
       </c>
-      <c r="E27" s="103">
+      <c r="E27" s="115">
         <v>12</v>
       </c>
       <c r="F27" s="61">
         <v>7.9907407407407413E-2</v>
       </c>
-      <c r="G27" s="103">
+      <c r="G27" s="115">
         <v>16</v>
       </c>
-      <c r="H27" s="103">
+      <c r="H27" s="115">
         <v>11</v>
       </c>
-      <c r="I27" s="103">
+      <c r="I27" s="115">
         <v>263</v>
       </c>
-      <c r="J27" s="103">
+      <c r="J27" s="115">
         <v>2</v>
       </c>
     </row>
@@ -4411,35 +4458,35 @@
       <c r="D28" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E28" s="104"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="104"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
     </row>
     <row r="29" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D29" s="59">
         <v>0.50004629629629627</v>
       </c>
-      <c r="E29" s="103">
+      <c r="E29" s="115">
         <v>13</v>
       </c>
       <c r="F29" s="61">
         <v>0.25005787037037036</v>
       </c>
-      <c r="G29" s="103">
+      <c r="G29" s="115">
         <v>12</v>
       </c>
-      <c r="H29" s="103">
+      <c r="H29" s="115">
         <v>97</v>
       </c>
-      <c r="I29" s="103">
+      <c r="I29" s="115">
         <v>227</v>
       </c>
-      <c r="J29" s="103">
+      <c r="J29" s="115">
         <v>2</v>
       </c>
     </row>
@@ -4447,35 +4494,35 @@
       <c r="D30" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="104"/>
+      <c r="E30" s="116"/>
       <c r="F30" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="116"/>
     </row>
     <row r="31" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D31" s="59">
         <v>0.50004629629629627</v>
       </c>
-      <c r="E31" s="103">
+      <c r="E31" s="115">
         <v>14</v>
       </c>
       <c r="F31" s="61">
         <v>0.29172453703703705</v>
       </c>
-      <c r="G31" s="103">
+      <c r="G31" s="115">
         <v>10</v>
       </c>
-      <c r="H31" s="103">
+      <c r="H31" s="115">
         <v>109</v>
       </c>
-      <c r="I31" s="103">
+      <c r="I31" s="115">
         <v>269</v>
       </c>
-      <c r="J31" s="103">
+      <c r="J31" s="115">
         <v>4</v>
       </c>
     </row>
@@ -4483,35 +4530,35 @@
       <c r="D32" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="104"/>
+      <c r="E32" s="116"/>
       <c r="F32" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="104"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="116"/>
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D33" s="59">
         <v>0.50004629629629627</v>
       </c>
-      <c r="E33" s="103">
+      <c r="E33" s="115">
         <v>15</v>
       </c>
       <c r="F33" s="61">
         <v>8.3391203703703717E-2</v>
       </c>
-      <c r="G33" s="103">
+      <c r="G33" s="115">
         <v>16</v>
       </c>
-      <c r="H33" s="103">
+      <c r="H33" s="115">
         <v>23</v>
       </c>
-      <c r="I33" s="103">
+      <c r="I33" s="115">
         <v>59</v>
       </c>
-      <c r="J33" s="103">
+      <c r="J33" s="115">
         <v>2</v>
       </c>
     </row>
@@ -4519,35 +4566,35 @@
       <c r="D34" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E34" s="104"/>
+      <c r="E34" s="116"/>
       <c r="F34" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="104"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D35" s="59">
         <v>0.50012731481481476</v>
       </c>
-      <c r="E35" s="103">
+      <c r="E35" s="115">
         <v>16</v>
       </c>
       <c r="F35" s="61">
         <v>0.33347222222222223</v>
       </c>
-      <c r="G35" s="103">
+      <c r="G35" s="115">
         <v>22</v>
       </c>
-      <c r="H35" s="103">
+      <c r="H35" s="115">
         <v>137</v>
       </c>
-      <c r="I35" s="103">
+      <c r="I35" s="115">
         <v>313</v>
       </c>
-      <c r="J35" s="103">
+      <c r="J35" s="115">
         <v>8</v>
       </c>
     </row>
@@ -4555,35 +4602,35 @@
       <c r="D36" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="104"/>
+      <c r="E36" s="116"/>
       <c r="F36" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="104"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D37" s="59">
         <v>0.50005787037037031</v>
       </c>
-      <c r="E37" s="103">
+      <c r="E37" s="115">
         <v>17</v>
       </c>
       <c r="F37" s="61">
         <v>0.12508101851851852</v>
       </c>
-      <c r="G37" s="103">
+      <c r="G37" s="115">
         <v>15</v>
       </c>
-      <c r="H37" s="103">
+      <c r="H37" s="115">
         <v>41</v>
       </c>
-      <c r="I37" s="103">
+      <c r="I37" s="115">
         <v>97</v>
       </c>
-      <c r="J37" s="103">
+      <c r="J37" s="115">
         <v>8</v>
       </c>
     </row>
@@ -4591,102 +4638,102 @@
       <c r="D38" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E38" s="104"/>
+      <c r="E38" s="116"/>
       <c r="F38" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="104"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4719,10 +4766,10 @@
       </c>
     </row>
     <row r="18" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J18" s="105" t="s">
+      <c r="J18" s="117" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="105" t="s">
+      <c r="K18" s="117" t="s">
         <v>116</v>
       </c>
       <c r="L18" s="6" t="s">
@@ -4730,8 +4777,8 @@
       </c>
     </row>
     <row r="19" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J19" s="105"/>
-      <c r="K19" s="105"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
       <c r="L19" s="6" t="s">
         <v>139</v>
       </c>
@@ -4945,40 +4992,42 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:K15"/>
+  <dimension ref="D4:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="118" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="116">
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="79">
         <v>0.62883101851851853</v>
       </c>
-      <c r="H5" s="115"/>
+      <c r="H5" s="78"/>
     </row>
     <row r="6" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="102"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="118">
+      <c r="E6" s="114"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="80">
         <v>478</v>
       </c>
-      <c r="H6" s="115"/>
+      <c r="H6" s="78"/>
     </row>
     <row r="7" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="30" t="s">
@@ -4990,26 +5039,26 @@
       <c r="F7" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="127" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="107"/>
-      <c r="J7" s="106" t="s">
+      <c r="H7" s="73"/>
+      <c r="J7" s="72" t="s">
         <v>167</v>
       </c>
-      <c r="K7" s="106"/>
+      <c r="K7" s="72"/>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D8" s="122" t="s">
+      <c r="D8" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="E8" s="121">
+      <c r="E8" s="81">
         <v>55</v>
       </c>
-      <c r="F8" s="122" t="s">
+      <c r="F8" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="G8" s="120" t="b">
+      <c r="G8" s="125" t="b">
         <f>E$7&lt; E8</f>
         <v>1</v>
       </c>
@@ -5023,10 +5072,10 @@
         <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G9" s="4" t="b">
-        <f t="shared" ref="G9:G12" si="0">E$7&lt; E9</f>
+        <v>171</v>
+      </c>
+      <c r="G9" s="126" t="b">
+        <f t="shared" ref="G9:G13" si="0">E$7&lt; E9</f>
         <v>1</v>
       </c>
       <c r="H9" s="63"/>
@@ -5039,9 +5088,9 @@
         <v>104</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G10" s="4" t="b">
+        <v>172</v>
+      </c>
+      <c r="G10" s="126" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -5055,9 +5104,9 @@
         <v>495</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G11" s="4" t="b">
+        <v>173</v>
+      </c>
+      <c r="G11" s="126" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -5071,50 +5120,64 @@
         <v>2695</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G12" s="4" t="b">
+        <v>174</v>
+      </c>
+      <c r="G12" s="126" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H12" s="63"/>
     </row>
-    <row r="13" spans="4:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="17" t="s">
+    <row r="13" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="122" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" s="31">
+        <f>G6-E7</f>
+        <v>442</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="123"/>
+      <c r="H13" s="71"/>
+    </row>
+    <row r="14" spans="4:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D14" s="108" t="s">
+      <c r="G14" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D15" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="E14" s="90" t="s">
+      <c r="E15" s="102" t="s">
         <v>162</v>
       </c>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
-    </row>
-    <row r="15" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="109" t="s">
+      <c r="F15" s="102"/>
+      <c r="G15" s="103"/>
+    </row>
+    <row r="16" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="124" t="s">
         <v>165</v>
       </c>
-      <c r="E15" s="112">
+      <c r="E16" s="77">
         <v>263</v>
       </c>
-      <c r="F15" s="110"/>
-      <c r="G15" s="111"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="D6:F6"/>
-    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2325" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2325" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
     <sheet name="new" sheetId="6" r:id="rId7"/>
     <sheet name="1new" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet6" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="182">
   <si>
     <t xml:space="preserve">        &lt;item&gt;GMT-1&lt;/item&gt; </t>
   </si>
@@ -717,6 +718,21 @@
       </rPr>
       <t xml:space="preserve"> )</t>
     </r>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>arrayListPrime</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>prima</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1409,6 +1425,21 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4994,8 +5025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5014,7 +5045,7 @@
       <c r="E5" s="119"/>
       <c r="F5" s="119"/>
       <c r="G5" s="79">
-        <v>0.62883101851851853</v>
+        <v>0.37903935185185184</v>
       </c>
       <c r="H5" s="78"/>
     </row>
@@ -5183,4 +5214,2455 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F5:P482"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="129" t="s">
+        <v>178</v>
+      </c>
+      <c r="J6" s="130"/>
+      <c r="K6" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="L6" s="31">
+        <v>2</v>
+      </c>
+      <c r="M6" s="31">
+        <v>3</v>
+      </c>
+      <c r="N6" s="31">
+        <v>5</v>
+      </c>
+      <c r="O6" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="P6" s="128">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="7" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="131"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="L7" s="22">
+        <v>1</v>
+      </c>
+      <c r="M7" s="22">
+        <v>2</v>
+      </c>
+      <c r="N7" s="22">
+        <v>3</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="P7" s="23">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="8" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="13" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F131">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F135">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F137">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F140">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F141">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F142">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="143" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F143">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="144" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F144">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="145" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F145">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="146" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F146">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="147" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F147">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="148" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F148">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="149" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="150" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F150">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="151" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F151">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="152" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F152">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="153" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F153">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="154" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F154">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="155" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F155">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="156" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F156">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="157" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="158" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F158">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="159" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F159">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="160" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F160">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="161" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F161">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="162" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F162">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="163" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F163">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="164" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F164">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="165" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F165">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="166" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F166">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="167" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F167">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="168" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F168">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="169" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F169">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="170" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F170">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="171" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F171">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="172" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F172">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="173" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F173">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="174" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F174">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="175" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F175">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="176" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F176">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="177" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F177">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="178" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F178">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="179" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F179">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="180" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F180">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="181" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F181">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="182" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F182">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="183" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F183">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="184" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F184">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="185" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F185">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="186" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F186">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="187" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F187">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="188" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F188">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="189" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F189">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="190" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F190">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="191" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F191">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="192" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F192">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="193" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F193">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="194" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F194">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="195" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F195">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="196" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F196">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="197" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F197">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="198" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F198">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="199" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F199">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="200" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F200">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="201" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F201">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="202" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F202">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="203" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F203">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="204" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F204">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="205" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F205">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="206" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F206">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="207" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F207">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="208" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F208">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="209" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F209">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="210" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F210">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="211" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F211">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="212" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F212">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="213" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F213">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="214" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F214">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="215" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F215">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="216" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F216">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="217" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F217">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="218" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F218">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="219" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F219">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="220" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F220">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="221" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F221">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="222" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F222">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="223" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F223">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="224" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F224">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="225" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F225">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="226" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F226">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="227" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F227">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="228" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F228">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="229" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F229">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="230" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F230">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="231" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F231">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="232" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F232">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="233" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F233">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="234" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F234">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="235" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F235">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="236" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F236">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="237" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F237">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="238" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F238">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="239" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F239">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="240" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F240">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="241" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F241">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="242" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F242">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="243" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F243">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="244" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F244">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="245" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F245">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="246" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F246">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="247" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F247">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="248" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F248">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="249" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F249">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="250" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F250">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="251" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F251">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="252" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F252">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="253" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F253">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="254" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F254">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="255" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F255">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="256" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F256">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="257" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F257">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="258" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F258">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="259" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F259">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="260" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F260">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="261" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F261">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="262" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F262">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="263" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F263">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="264" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F264">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="265" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F265">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="266" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F266">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="267" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F267">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="268" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F268">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="269" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F269">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="270" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F270">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="271" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F271">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="272" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F272">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="273" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F273">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="274" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F274">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="275" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F275">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="276" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F276">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="277" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F277">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="278" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F278">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="279" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F279">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="280" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F280">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="281" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F281">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="282" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F282">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="283" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F283">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="284" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F284">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="285" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F285">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="286" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F286">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="287" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F287">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="288" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F288">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="289" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F289">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="290" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F290">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="291" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F291">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="292" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F292">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="293" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F293">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="294" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F294">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="295" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F295">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="296" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F296">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="297" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F297">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="298" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F298">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="299" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F299">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="300" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F300">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="301" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F301">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="302" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F302">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="303" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F303">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="304" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F304">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="305" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F305">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="306" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F306">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="307" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F307">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="308" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F308">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="309" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F309">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="310" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F310">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="311" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F311">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="312" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F312">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="313" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F313">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="314" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F314">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="315" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F315">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="316" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F316">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="317" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F317">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="318" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F318">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="319" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F319">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="320" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F320">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="321" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F321">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="322" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F322">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="323" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F323">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="324" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F324">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="325" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F325">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="326" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F326">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="327" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F327">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="328" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F328">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="329" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F329">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="330" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F330">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="331" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F331">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="332" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F332">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="333" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F333">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="334" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F334">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="335" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F335">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="336" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F336">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="337" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F337">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="338" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F338">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="339" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F339">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="340" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F340">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="341" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F341">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="342" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F342">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="343" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F343">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="344" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F344">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="345" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F345">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="346" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F346">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="347" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F347">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="348" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F348">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="349" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F349">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="350" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F350">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="351" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F351">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="352" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F352">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="353" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F353">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="354" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F354">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="355" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F355">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="356" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F356">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="357" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F357">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="358" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F358">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="359" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F359">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="360" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F360">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="361" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F361">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="362" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F362">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="363" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F363">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="364" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F364">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="365" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F365">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="366" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F366">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="367" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F367">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="368" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F368">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="369" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F369">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="370" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F370">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="371" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F371">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="372" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F372">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="373" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F373">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="374" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F374">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="375" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F375">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="376" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F376">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="377" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F377">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="378" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F378">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="379" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F379">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="380" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F380">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="381" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F381">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="382" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F382">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="383" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F383">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="384" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F384">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="385" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F385">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="386" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F386">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="387" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F387">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="388" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F388">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="389" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F389">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="390" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F390">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="391" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F391">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="392" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F392">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="393" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F393">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="394" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F394">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="395" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F395">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="396" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F396">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="397" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F397">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="398" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F398">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="399" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F399">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="400" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F400">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="401" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F401">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="402" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F402">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="403" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F403">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="404" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F404">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="405" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F405">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="406" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F406">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="407" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F407">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="408" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F408">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="409" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F409">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="410" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F410">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="411" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F411">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="412" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F412">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="413" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F413">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="414" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F414">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="415" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F415">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="416" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F416">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="417" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F417">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="418" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F418">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="419" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F419">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="420" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F420">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="421" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F421">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="422" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F422">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="423" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F423">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="424" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F424">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="425" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F425">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="426" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F426">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="427" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F427">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="428" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F428">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="429" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F429">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="430" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F430">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="431" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F431">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="432" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F432">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="433" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F433">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="434" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F434">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="435" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F435">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="436" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F436">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="437" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F437">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="438" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F438">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="439" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F439">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="440" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F440">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="441" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F441">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="442" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F442">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="443" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F443">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="444" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F444">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="445" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F445">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="446" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F446">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="447" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F447">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="448" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F448">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="449" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F449">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="450" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F450">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="451" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F451">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="452" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F452">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="453" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F453">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="454" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F454">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="455" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F455">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="456" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F456">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="457" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F457">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="458" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F458">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="459" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F459">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="460" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F460">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="461" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F461">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="462" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F462">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="463" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F463">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="464" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F464">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="465" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F465">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="466" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F466">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="467" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F467">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="468" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F468">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="469" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F469">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="470" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F470">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="471" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F471">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="472" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F472">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="473" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F473">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="474" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F474">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="475" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F475">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="476" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F476">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="477" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F477">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="478" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F478">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="479" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F479">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="480" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F480">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="481" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F481">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="482" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F482">
+        <v>3391</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I6:J7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/excel.xlsx
+++ b/excel.xlsx
@@ -5221,7 +5221,7 @@
   <dimension ref="F5:P482"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="K7" sqref="K6:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -5221,7 +5221,7 @@
   <dimension ref="F5:P482"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K7" sqref="K6:K7"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -23,7 +23,6 @@
     <sheet name="Sheet6" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -723,9 +722,6 @@
     <t>.</t>
   </si>
   <si>
-    <t>arrayListPrime</t>
-  </si>
-  <si>
     <t>..</t>
   </si>
   <si>
@@ -733,6 +729,9 @@
   </si>
   <si>
     <t>size</t>
+  </si>
+  <si>
+    <t>arrayListPrimeNumber</t>
   </si>
 </sst>
 </file>
@@ -1298,123 +1297,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1428,6 +1310,123 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1940,42 +1939,42 @@
   <sheetData>
     <row r="2" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="89"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="96"/>
     </row>
     <row r="4" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="90"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="92"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="84"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="64"/>
       <c r="G5" s="65"/>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="84"/>
+      <c r="I5" s="91"/>
     </row>
     <row r="6" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="85"/>
-      <c r="E6" s="86"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="64"/>
       <c r="G6" s="65"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="86"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="93"/>
     </row>
     <row r="7" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D7" s="66" t="s">
@@ -2236,23 +2235,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
     </row>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="97"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
       <c r="I2" s="32"/>
       <c r="M2" s="24">
         <v>4814863028233940</v>
@@ -2262,13 +2261,13 @@
       <c r="C3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="110"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="117"/>
       <c r="I3" s="32"/>
       <c r="M3" t="s">
         <v>92</v>
@@ -2276,55 +2275,55 @@
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" s="4"/>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="110"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="117"/>
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="110"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="117"/>
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
-      <c r="D6" s="108" t="s">
+      <c r="D6" s="115" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="110"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="117"/>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="108" t="s">
+      <c r="D7" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="110"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="117"/>
     </row>
     <row r="8" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="5"/>
-      <c r="D8" s="111" t="s">
+      <c r="D8" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="113"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="120"/>
       <c r="M8" t="s">
         <v>93</v>
       </c>
@@ -2333,13 +2332,13 @@
       <c r="C9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="94"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="101"/>
       <c r="M9" t="s">
         <v>94</v>
       </c>
@@ -2604,26 +2603,26 @@
       <c r="C21" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="105" t="s">
+      <c r="D21" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="107"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="114"/>
       <c r="I21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="105" t="s">
+      <c r="D22" s="112" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="107"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="114"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
@@ -2700,25 +2699,25 @@
       <c r="C48" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="98" t="s">
+      <c r="D48" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="99"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="99"/>
-      <c r="H48" s="100"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="106"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="107"/>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="101" t="s">
+      <c r="D49" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="102"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="103"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="110"/>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="4" t="s">
@@ -3006,10 +3005,10 @@
       </c>
     </row>
     <row r="75" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F75" s="93" t="s">
+      <c r="F75" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="G75" s="94"/>
+      <c r="G75" s="101"/>
       <c r="H75" s="38">
         <f>AVERAGE(H70:H74)</f>
         <v>120.4</v>
@@ -4070,22 +4069,22 @@
       <c r="D5" s="59">
         <v>0.45837962962962964</v>
       </c>
-      <c r="E5" s="115">
+      <c r="E5" s="122">
         <v>1</v>
       </c>
       <c r="F5" s="61">
         <v>0.25005787037037036</v>
       </c>
-      <c r="G5" s="115">
+      <c r="G5" s="122">
         <v>23</v>
       </c>
-      <c r="H5" s="115">
+      <c r="H5" s="122">
         <v>97</v>
       </c>
-      <c r="I5" s="115">
+      <c r="I5" s="122">
         <v>227</v>
       </c>
-      <c r="J5" s="115">
+      <c r="J5" s="122">
         <v>2</v>
       </c>
     </row>
@@ -4093,35 +4092,35 @@
       <c r="D6" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="116"/>
+      <c r="E6" s="123"/>
       <c r="F6" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
     </row>
     <row r="7" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D7" s="59">
         <v>0.46186342592592594</v>
       </c>
-      <c r="E7" s="115">
+      <c r="E7" s="122">
         <v>2</v>
       </c>
       <c r="F7" s="61">
         <v>0.25354166666666667</v>
       </c>
-      <c r="G7" s="115">
+      <c r="G7" s="122">
         <v>10</v>
       </c>
-      <c r="H7" s="115">
+      <c r="H7" s="122">
         <v>97</v>
       </c>
-      <c r="I7" s="115">
+      <c r="I7" s="122">
         <v>127</v>
       </c>
-      <c r="J7" s="115">
+      <c r="J7" s="122">
         <v>6</v>
       </c>
     </row>
@@ -4129,35 +4128,35 @@
       <c r="D8" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="116"/>
+      <c r="E8" s="123"/>
       <c r="F8" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
     </row>
     <row r="9" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D9" s="59">
         <v>0.46533564814814815</v>
       </c>
-      <c r="E9" s="115">
+      <c r="E9" s="122">
         <v>3</v>
       </c>
       <c r="F9" s="61">
         <v>0.38201388888888888</v>
       </c>
-      <c r="G9" s="115">
+      <c r="G9" s="122">
         <v>1</v>
       </c>
-      <c r="H9" s="115">
+      <c r="H9" s="122">
         <v>157</v>
       </c>
-      <c r="I9" s="115">
+      <c r="I9" s="122">
         <v>467</v>
       </c>
-      <c r="J9" s="115">
+      <c r="J9" s="122">
         <v>2</v>
       </c>
     </row>
@@ -4165,35 +4164,35 @@
       <c r="D10" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="116"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D11" s="59">
         <v>0.46883101851851849</v>
       </c>
-      <c r="E11" s="115">
+      <c r="E11" s="122">
         <v>4</v>
       </c>
       <c r="F11" s="61">
         <v>0.38550925925925927</v>
       </c>
-      <c r="G11" s="115">
+      <c r="G11" s="122">
         <v>20</v>
       </c>
-      <c r="H11" s="115">
+      <c r="H11" s="122">
         <v>157</v>
       </c>
-      <c r="I11" s="115">
+      <c r="I11" s="122">
         <v>769</v>
       </c>
-      <c r="J11" s="115">
+      <c r="J11" s="122">
         <v>12</v>
       </c>
     </row>
@@ -4201,35 +4200,35 @@
       <c r="D12" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E12" s="116"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D13" s="59">
         <v>0.47228009259259257</v>
       </c>
-      <c r="E13" s="115">
+      <c r="E13" s="122">
         <v>5</v>
       </c>
       <c r="F13" s="61">
         <v>0.43062500000000004</v>
       </c>
-      <c r="G13" s="115">
+      <c r="G13" s="122">
         <v>19</v>
       </c>
-      <c r="H13" s="115">
+      <c r="H13" s="122">
         <v>179</v>
       </c>
-      <c r="I13" s="115">
+      <c r="I13" s="122">
         <v>1229</v>
       </c>
-      <c r="J13" s="115">
+      <c r="J13" s="122">
         <v>2</v>
       </c>
     </row>
@@ -4237,35 +4236,35 @@
       <c r="D14" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="116"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
     </row>
     <row r="15" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D15" s="59">
         <v>0.47574074074074074</v>
       </c>
-      <c r="E15" s="115">
+      <c r="E15" s="122">
         <v>6</v>
       </c>
       <c r="F15" s="61">
         <v>0.22575231481481481</v>
       </c>
-      <c r="G15" s="115">
+      <c r="G15" s="122">
         <v>12</v>
       </c>
-      <c r="H15" s="115">
+      <c r="H15" s="122">
         <v>73</v>
       </c>
-      <c r="I15" s="115">
+      <c r="I15" s="122">
         <v>101</v>
       </c>
-      <c r="J15" s="115">
+      <c r="J15" s="122">
         <v>4</v>
       </c>
     </row>
@@ -4273,35 +4272,35 @@
       <c r="D16" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="116"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D17" s="59">
         <v>0.47921296296296295</v>
       </c>
-      <c r="E17" s="115">
+      <c r="E17" s="122">
         <v>7</v>
       </c>
       <c r="F17" s="61">
         <v>0.47922453703703699</v>
       </c>
-      <c r="G17" s="115">
+      <c r="G17" s="122">
         <v>18</v>
       </c>
-      <c r="H17" s="115">
+      <c r="H17" s="122">
         <v>197</v>
       </c>
-      <c r="I17" s="115">
+      <c r="I17" s="122">
         <v>2221</v>
       </c>
-      <c r="J17" s="115">
+      <c r="J17" s="122">
         <v>4</v>
       </c>
     </row>
@@ -4309,35 +4308,35 @@
       <c r="D18" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="116"/>
+      <c r="E18" s="123"/>
       <c r="F18" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D19" s="59">
         <v>0.48268518518518522</v>
       </c>
-      <c r="E19" s="115">
+      <c r="E19" s="122">
         <v>8</v>
       </c>
       <c r="F19" s="61">
         <v>0.14936342592592591</v>
       </c>
-      <c r="G19" s="115">
+      <c r="G19" s="122">
         <v>14</v>
       </c>
-      <c r="H19" s="115">
+      <c r="H19" s="122">
         <v>41</v>
       </c>
-      <c r="I19" s="115">
+      <c r="I19" s="122">
         <v>151</v>
       </c>
-      <c r="J19" s="115">
+      <c r="J19" s="122">
         <v>10</v>
       </c>
     </row>
@@ -4345,35 +4344,35 @@
       <c r="D20" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E20" s="116"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D21" s="59">
         <v>0.48616898148148152</v>
       </c>
-      <c r="E21" s="115">
+      <c r="E21" s="122">
         <v>9</v>
       </c>
       <c r="F21" s="61">
         <v>0.36118055555555556</v>
       </c>
-      <c r="G21" s="115">
+      <c r="G21" s="122">
         <v>21</v>
       </c>
-      <c r="H21" s="115">
+      <c r="H21" s="122">
         <v>137</v>
       </c>
-      <c r="I21" s="115">
+      <c r="I21" s="122">
         <v>179</v>
       </c>
-      <c r="J21" s="115">
+      <c r="J21" s="122">
         <v>2</v>
       </c>
     </row>
@@ -4381,35 +4380,35 @@
       <c r="D22" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E22" s="116"/>
+      <c r="E22" s="123"/>
       <c r="F22" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D23" s="59">
         <v>0.48962962962962964</v>
       </c>
-      <c r="E23" s="115">
+      <c r="E23" s="122">
         <v>10</v>
       </c>
       <c r="F23" s="61">
         <v>0.48964120370370368</v>
       </c>
-      <c r="G23" s="115">
+      <c r="G23" s="122">
         <v>18</v>
       </c>
-      <c r="H23" s="115">
+      <c r="H23" s="122">
         <v>197</v>
       </c>
-      <c r="I23" s="115">
+      <c r="I23" s="122">
         <v>199</v>
       </c>
-      <c r="J23" s="115">
+      <c r="J23" s="122">
         <v>2</v>
       </c>
     </row>
@@ -4417,35 +4416,35 @@
       <c r="D24" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="116"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="116"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="123"/>
     </row>
     <row r="25" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D25" s="59">
         <v>0.49311342592592594</v>
       </c>
-      <c r="E25" s="115">
+      <c r="E25" s="122">
         <v>11</v>
       </c>
       <c r="F25" s="61">
         <v>0.36812500000000004</v>
       </c>
-      <c r="G25" s="115">
+      <c r="G25" s="122">
         <v>21</v>
       </c>
-      <c r="H25" s="115">
+      <c r="H25" s="122">
         <v>137</v>
       </c>
-      <c r="I25" s="115">
+      <c r="I25" s="122">
         <v>223</v>
       </c>
-      <c r="J25" s="115">
+      <c r="J25" s="122">
         <v>8</v>
       </c>
     </row>
@@ -4453,35 +4452,35 @@
       <c r="D26" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="116"/>
+      <c r="E26" s="123"/>
       <c r="F26" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="116"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="123"/>
     </row>
     <row r="27" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D27" s="59">
         <v>0.49657407407407406</v>
       </c>
-      <c r="E27" s="115">
+      <c r="E27" s="122">
         <v>12</v>
       </c>
       <c r="F27" s="61">
         <v>7.9907407407407413E-2</v>
       </c>
-      <c r="G27" s="115">
+      <c r="G27" s="122">
         <v>16</v>
       </c>
-      <c r="H27" s="115">
+      <c r="H27" s="122">
         <v>11</v>
       </c>
-      <c r="I27" s="115">
+      <c r="I27" s="122">
         <v>263</v>
       </c>
-      <c r="J27" s="115">
+      <c r="J27" s="122">
         <v>2</v>
       </c>
     </row>
@@ -4489,35 +4488,35 @@
       <c r="D28" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E28" s="116"/>
+      <c r="E28" s="123"/>
       <c r="F28" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="116"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
     </row>
     <row r="29" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D29" s="59">
         <v>0.50004629629629627</v>
       </c>
-      <c r="E29" s="115">
+      <c r="E29" s="122">
         <v>13</v>
       </c>
       <c r="F29" s="61">
         <v>0.25005787037037036</v>
       </c>
-      <c r="G29" s="115">
+      <c r="G29" s="122">
         <v>12</v>
       </c>
-      <c r="H29" s="115">
+      <c r="H29" s="122">
         <v>97</v>
       </c>
-      <c r="I29" s="115">
+      <c r="I29" s="122">
         <v>227</v>
       </c>
-      <c r="J29" s="115">
+      <c r="J29" s="122">
         <v>2</v>
       </c>
     </row>
@@ -4525,35 +4524,35 @@
       <c r="D30" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="116"/>
+      <c r="E30" s="123"/>
       <c r="F30" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="116"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="123"/>
     </row>
     <row r="31" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D31" s="59">
         <v>0.50004629629629627</v>
       </c>
-      <c r="E31" s="115">
+      <c r="E31" s="122">
         <v>14</v>
       </c>
       <c r="F31" s="61">
         <v>0.29172453703703705</v>
       </c>
-      <c r="G31" s="115">
+      <c r="G31" s="122">
         <v>10</v>
       </c>
-      <c r="H31" s="115">
+      <c r="H31" s="122">
         <v>109</v>
       </c>
-      <c r="I31" s="115">
+      <c r="I31" s="122">
         <v>269</v>
       </c>
-      <c r="J31" s="115">
+      <c r="J31" s="122">
         <v>4</v>
       </c>
     </row>
@@ -4561,35 +4560,35 @@
       <c r="D32" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="116"/>
+      <c r="E32" s="123"/>
       <c r="F32" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="G32" s="116"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="116"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="123"/>
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D33" s="59">
         <v>0.50004629629629627</v>
       </c>
-      <c r="E33" s="115">
+      <c r="E33" s="122">
         <v>15</v>
       </c>
       <c r="F33" s="61">
         <v>8.3391203703703717E-2</v>
       </c>
-      <c r="G33" s="115">
+      <c r="G33" s="122">
         <v>16</v>
       </c>
-      <c r="H33" s="115">
+      <c r="H33" s="122">
         <v>23</v>
       </c>
-      <c r="I33" s="115">
+      <c r="I33" s="122">
         <v>59</v>
       </c>
-      <c r="J33" s="115">
+      <c r="J33" s="122">
         <v>2</v>
       </c>
     </row>
@@ -4597,35 +4596,35 @@
       <c r="D34" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E34" s="116"/>
+      <c r="E34" s="123"/>
       <c r="F34" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="116"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="123"/>
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D35" s="59">
         <v>0.50012731481481476</v>
       </c>
-      <c r="E35" s="115">
+      <c r="E35" s="122">
         <v>16</v>
       </c>
       <c r="F35" s="61">
         <v>0.33347222222222223</v>
       </c>
-      <c r="G35" s="115">
+      <c r="G35" s="122">
         <v>22</v>
       </c>
-      <c r="H35" s="115">
+      <c r="H35" s="122">
         <v>137</v>
       </c>
-      <c r="I35" s="115">
+      <c r="I35" s="122">
         <v>313</v>
       </c>
-      <c r="J35" s="115">
+      <c r="J35" s="122">
         <v>8</v>
       </c>
     </row>
@@ -4633,35 +4632,35 @@
       <c r="D36" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="116"/>
+      <c r="E36" s="123"/>
       <c r="F36" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="G36" s="116"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="116"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="123"/>
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D37" s="59">
         <v>0.50005787037037031</v>
       </c>
-      <c r="E37" s="115">
+      <c r="E37" s="122">
         <v>17</v>
       </c>
       <c r="F37" s="61">
         <v>0.12508101851851852</v>
       </c>
-      <c r="G37" s="115">
+      <c r="G37" s="122">
         <v>15</v>
       </c>
-      <c r="H37" s="115">
+      <c r="H37" s="122">
         <v>41</v>
       </c>
-      <c r="I37" s="115">
+      <c r="I37" s="122">
         <v>97</v>
       </c>
-      <c r="J37" s="115">
+      <c r="J37" s="122">
         <v>8</v>
       </c>
     </row>
@@ -4669,102 +4668,102 @@
       <c r="D38" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="E38" s="116"/>
+      <c r="E38" s="123"/>
       <c r="F38" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="G38" s="116"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="123"/>
+      <c r="J38" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="H37:H38"/>
     <mergeCell ref="I37:I38"/>
     <mergeCell ref="J37:J38"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4797,10 +4796,10 @@
       </c>
     </row>
     <row r="18" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J18" s="117" t="s">
+      <c r="J18" s="124" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="117" t="s">
+      <c r="K18" s="124" t="s">
         <v>116</v>
       </c>
       <c r="L18" s="6" t="s">
@@ -4808,8 +4807,8 @@
       </c>
     </row>
     <row r="19" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
       <c r="L19" s="6" t="s">
         <v>139</v>
       </c>
@@ -5039,22 +5038,22 @@
   <sheetData>
     <row r="4" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="125" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
       <c r="G5" s="79">
         <v>0.37903935185185184</v>
       </c>
       <c r="H5" s="78"/>
     </row>
     <row r="6" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="100" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="114"/>
-      <c r="F6" s="94"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="101"/>
       <c r="G6" s="80">
         <v>478</v>
       </c>
@@ -5070,7 +5069,7 @@
       <c r="F7" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="G7" s="127" t="s">
+      <c r="G7" s="88" t="s">
         <v>166</v>
       </c>
       <c r="H7" s="73"/>
@@ -5089,7 +5088,7 @@
       <c r="F8" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="G8" s="125" t="b">
+      <c r="G8" s="86" t="b">
         <f>E$7&lt; E8</f>
         <v>1</v>
       </c>
@@ -5105,8 +5104,8 @@
       <c r="F9" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G9" s="126" t="b">
-        <f t="shared" ref="G9:G13" si="0">E$7&lt; E9</f>
+      <c r="G9" s="87" t="b">
+        <f t="shared" ref="G9:G12" si="0">E$7&lt; E9</f>
         <v>1</v>
       </c>
       <c r="H9" s="63"/>
@@ -5121,7 +5120,7 @@
       <c r="F10" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G10" s="126" t="b">
+      <c r="G10" s="87" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -5137,7 +5136,7 @@
       <c r="F11" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G11" s="126" t="b">
+      <c r="G11" s="87" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -5153,14 +5152,14 @@
       <c r="F12" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G12" s="126" t="b">
+      <c r="G12" s="87" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H12" s="63"/>
     </row>
     <row r="13" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="122" t="s">
+      <c r="D13" s="83" t="s">
         <v>175</v>
       </c>
       <c r="E13" s="31">
@@ -5170,12 +5169,12 @@
       <c r="F13" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="G13" s="123"/>
+      <c r="G13" s="84"/>
       <c r="H13" s="71"/>
     </row>
     <row r="14" spans="4:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D14" s="120"/>
-      <c r="E14" s="121"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="128"/>
       <c r="F14" s="17" t="s">
         <v>164</v>
       </c>
@@ -5187,14 +5186,14 @@
       <c r="D15" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="E15" s="102" t="s">
+      <c r="E15" s="109" t="s">
         <v>162</v>
       </c>
-      <c r="F15" s="102"/>
-      <c r="G15" s="103"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="110"/>
     </row>
     <row r="16" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="124" t="s">
+      <c r="D16" s="85" t="s">
         <v>165</v>
       </c>
       <c r="E16" s="77">
@@ -5221,10 +5220,13 @@
   <dimension ref="F5:P482"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="5" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F5">
@@ -5236,11 +5238,11 @@
         <v>3</v>
       </c>
       <c r="I6" s="129" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J6" s="130"/>
       <c r="K6" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L6" s="31">
         <v>2</v>
@@ -5252,10 +5254,10 @@
         <v>5</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="P6" s="128">
-        <v>3391</v>
+        <v>178</v>
+      </c>
+      <c r="P6" s="89">
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5265,7 +5267,7 @@
       <c r="I7" s="131"/>
       <c r="J7" s="132"/>
       <c r="K7" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L7" s="22">
         <v>1</v>
@@ -5277,10 +5279,10 @@
         <v>3</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P7" s="23">
-        <v>478</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="6:16" x14ac:dyDescent="0.25">
@@ -5308,10 +5310,18 @@
         <v>3391</v>
       </c>
     </row>
-    <row r="13" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="6:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F13">
         <v>23</v>
       </c>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
     </row>
     <row r="14" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F14">

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2325" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9195" windowHeight="2325" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="175">
   <si>
     <t xml:space="preserve">        &lt;item&gt;GMT-1&lt;/item&gt; </t>
   </si>
@@ -561,24 +561,12 @@
     <t>ada 24 jenis gmt</t>
   </si>
   <si>
-    <t>RWAP</t>
-  </si>
-  <si>
     <t>(HH:mm:ss)</t>
   </si>
   <si>
-    <t>RWSPA</t>
-  </si>
-  <si>
     <t>(hh:mm:ss)</t>
   </si>
   <si>
-    <t>RNG</t>
-  </si>
-  <si>
-    <t>GMT POSISI</t>
-  </si>
-  <si>
     <t>GCD</t>
   </si>
   <si>
@@ -588,9 +576,6 @@
     <t>GMT + 8</t>
   </si>
   <si>
-    <t>GMT +13</t>
-  </si>
-  <si>
     <t>GMT +8</t>
   </si>
   <si>
@@ -630,71 +615,92 @@
     <t xml:space="preserve">GCD </t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>informasi peranti waktu</t>
-  </si>
-  <si>
-    <t>arrayListPrimeNumber [n]</t>
-  </si>
-  <si>
-    <t>k[n] =</t>
-  </si>
-  <si>
-    <t>K[n]</t>
-  </si>
-  <si>
-    <t>k[31] =</t>
-  </si>
-  <si>
-    <t>RETURN value Kn as [n] as K[n]</t>
-  </si>
-  <si>
     <t>K1 &lt; Kn &amp;&amp;  K1 != Kn</t>
   </si>
   <si>
-    <t>arrayListPrimeNumber [n].size</t>
-  </si>
-  <si>
-    <t>K1 &lt; K2 &amp;&amp;  K1 != K2</t>
-  </si>
-  <si>
-    <t>K[55]</t>
-  </si>
-  <si>
-    <t>K1 &lt; K3 &amp;&amp;  K1 != K3</t>
-  </si>
-  <si>
-    <t>K1 &lt; K4 &amp;&amp;  K1 != K4</t>
-  </si>
-  <si>
-    <t>K1 &lt; K5 &amp;&amp;  K1 != K5</t>
-  </si>
-  <si>
-    <t>K1 &lt; K6 &amp;&amp;  K1 != K6</t>
-  </si>
-  <si>
-    <t>K[(jml prima-k1)]</t>
+    <t>.</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>prima</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>arrayListPrimeNumber</t>
+  </si>
+  <si>
+    <t>inisial</t>
+  </si>
+  <si>
+    <t>Qi</t>
+  </si>
+  <si>
+    <t>Kondisi</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>arrayListPrimeNumber .size</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Hasil</t>
+  </si>
+  <si>
+    <t>informasi peranti waktu (HH:mm:ss)</t>
+  </si>
+  <si>
+    <t>qQi</t>
+  </si>
+  <si>
+    <t>K1 &lt; K2</t>
+  </si>
+  <si>
+    <t>K2 &gt; K1</t>
+  </si>
+  <si>
+    <t>sudoRandom</t>
+  </si>
+  <si>
+    <t>Zi</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>ZL</t>
+  </si>
+  <si>
+    <t>Selisih</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">n = 0 ( </t>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dan </t>
     </r>
     <r>
       <rPr>
@@ -705,33 +711,54 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>else</t>
+      <t>q</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">( </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <i/>
+        <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> )</t>
+      <t>p</t>
     </r>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>..</t>
-  </si>
-  <si>
-    <t>prima</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>arrayListPrimeNumber</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - 1, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - 1 )</t>
+    </r>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -741,7 +768,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -831,8 +858,24 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -848,12 +891,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,7 +1156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1228,26 +1265,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1276,169 +1301,229 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="21" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="21" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1599,13 +1684,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>189672</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>877957</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1939,56 +2024,56 @@
   <sheetData>
     <row r="2" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D3" s="94" t="s">
+      <c r="D3" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="96"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82"/>
     </row>
     <row r="4" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="99"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="85"/>
     </row>
     <row r="5" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="90" t="s">
+      <c r="E5" s="77"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="91"/>
+      <c r="I5" s="77"/>
     </row>
     <row r="6" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="92"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="93"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
     </row>
     <row r="7" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66" t="s">
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="67" t="s">
+      <c r="I7" s="63" t="s">
         <v>40</v>
       </c>
       <c r="R7" s="1" t="s">
@@ -1996,18 +2081,18 @@
       </c>
     </row>
     <row r="8" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="66" t="s">
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="67" t="s">
+      <c r="I8" s="63" t="s">
         <v>41</v>
       </c>
       <c r="R8" s="1" t="s">
@@ -2015,18 +2100,18 @@
       </c>
     </row>
     <row r="9" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="66" t="s">
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="70" t="s">
+      <c r="I9" s="66" t="s">
         <v>42</v>
       </c>
       <c r="R9" s="1" t="s">
@@ -2034,18 +2119,18 @@
       </c>
     </row>
     <row r="10" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="66" t="s">
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="67" t="s">
+      <c r="I10" s="63" t="s">
         <v>43</v>
       </c>
       <c r="R10" s="1" t="s">
@@ -2053,18 +2138,18 @@
       </c>
     </row>
     <row r="11" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="66" t="s">
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="67" t="s">
+      <c r="I11" s="63" t="s">
         <v>44</v>
       </c>
       <c r="R11" s="1" t="s">
@@ -2072,14 +2157,14 @@
       </c>
     </row>
     <row r="12" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D12" s="66"/>
-      <c r="E12" s="67" t="s">
+      <c r="D12" s="62"/>
+      <c r="E12" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="67" t="s">
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="63" t="s">
         <v>45</v>
       </c>
       <c r="R12" s="1" t="s">
@@ -2087,12 +2172,12 @@
       </c>
     </row>
     <row r="13" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="67" t="s">
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="63" t="s">
         <v>46</v>
       </c>
       <c r="R13" s="1" t="s">
@@ -2100,12 +2185,12 @@
       </c>
     </row>
     <row r="14" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="69" t="s">
+      <c r="D14" s="64"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="65" t="s">
         <v>47</v>
       </c>
       <c r="R14" s="1" t="s">
@@ -2235,23 +2320,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
     </row>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90"/>
       <c r="I2" s="32"/>
       <c r="M2" s="24">
         <v>4814863028233940</v>
@@ -2261,13 +2346,13 @@
       <c r="C3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="115" t="s">
+      <c r="D3" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="117"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="103"/>
       <c r="I3" s="32"/>
       <c r="M3" t="s">
         <v>92</v>
@@ -2275,55 +2360,55 @@
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" s="4"/>
-      <c r="D4" s="115" t="s">
+      <c r="D4" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="117"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="103"/>
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
-      <c r="D5" s="115" t="s">
+      <c r="D5" s="101" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="117"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="103"/>
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
-      <c r="D6" s="115" t="s">
+      <c r="D6" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="117"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="103"/>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
-      <c r="D7" s="115" t="s">
+      <c r="D7" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="117"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="103"/>
     </row>
     <row r="8" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="5"/>
-      <c r="D8" s="118" t="s">
+      <c r="D8" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="120"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="106"/>
       <c r="M8" t="s">
         <v>93</v>
       </c>
@@ -2332,13 +2417,13 @@
       <c r="C9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="100" t="s">
+      <c r="D9" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="101"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="87"/>
       <c r="M9" t="s">
         <v>94</v>
       </c>
@@ -2603,26 +2688,26 @@
       <c r="C21" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="112" t="s">
+      <c r="D21" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="114"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="100"/>
       <c r="I21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="112" t="s">
+      <c r="D22" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="114"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="100"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
@@ -2699,25 +2784,25 @@
       <c r="C48" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="105" t="s">
+      <c r="D48" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="106"/>
-      <c r="F48" s="106"/>
-      <c r="G48" s="106"/>
-      <c r="H48" s="107"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="92"/>
+      <c r="G48" s="92"/>
+      <c r="H48" s="93"/>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="108" t="s">
+      <c r="D49" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="109"/>
-      <c r="F49" s="109"/>
-      <c r="G49" s="109"/>
-      <c r="H49" s="110"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="95"/>
+      <c r="H49" s="96"/>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="4" t="s">
@@ -3005,10 +3090,10 @@
       </c>
     </row>
     <row r="75" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F75" s="100" t="s">
+      <c r="F75" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="G75" s="101"/>
+      <c r="G75" s="87"/>
       <c r="H75" s="38">
         <f>AVERAGE(H70:H74)</f>
         <v>120.4</v>
@@ -4016,754 +4101,775 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:J38"/>
+  <dimension ref="D2:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="52" t="s">
+    <row r="2" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D3" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="143" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="142" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="142" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="144" t="s">
+        <v>174</v>
+      </c>
+      <c r="I3" s="144" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="140" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3" s="142" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="4:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="109"/>
+      <c r="E4" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" s="58" t="s">
+      <c r="F4" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="138" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="139" t="s">
+        <v>172</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D5" s="108">
+        <v>1</v>
+      </c>
+      <c r="E5" s="55">
+        <v>0.6368287037037037</v>
+      </c>
+      <c r="F5" s="57">
+        <v>0.42850694444444448</v>
+      </c>
+      <c r="G5" s="108">
+        <v>10</v>
+      </c>
+      <c r="H5" s="108">
+        <v>179</v>
+      </c>
+      <c r="I5" s="108">
+        <v>419</v>
+      </c>
+      <c r="J5" s="141">
+        <f>ABS(H5-I5)</f>
+        <v>240</v>
+      </c>
+      <c r="K5" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="109"/>
+      <c r="E6" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="56" t="s">
+      <c r="F6" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="109"/>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="108">
+        <v>2</v>
+      </c>
+      <c r="E7" s="55">
+        <v>0.46186342592592594</v>
+      </c>
+      <c r="F7" s="57">
+        <v>0.25354166666666667</v>
+      </c>
+      <c r="G7" s="108">
+        <v>10</v>
+      </c>
+      <c r="H7" s="108">
+        <v>97</v>
+      </c>
+      <c r="I7" s="108">
+        <v>127</v>
+      </c>
+      <c r="K7" s="108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="109"/>
+      <c r="E8" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="53" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="4" spans="4:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" s="55" t="s">
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="K8" s="109"/>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D9" s="108">
+        <v>3</v>
+      </c>
+      <c r="E9" s="55">
+        <v>0.46533564814814815</v>
+      </c>
+      <c r="F9" s="57">
+        <v>0.38201388888888888</v>
+      </c>
+      <c r="G9" s="108">
+        <v>1</v>
+      </c>
+      <c r="H9" s="108">
+        <v>157</v>
+      </c>
+      <c r="I9" s="108">
+        <v>467</v>
+      </c>
+      <c r="K9" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="109"/>
+      <c r="E10" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="H4" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="I4" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="J4" s="57" t="s">
+      <c r="F10" s="53" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D5" s="59">
-        <v>0.45837962962962964</v>
-      </c>
-      <c r="E5" s="122">
-        <v>1</v>
-      </c>
-      <c r="F5" s="61">
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="K10" s="109"/>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="108">
+        <v>4</v>
+      </c>
+      <c r="E11" s="55">
+        <v>0.46883101851851849</v>
+      </c>
+      <c r="F11" s="57">
+        <v>0.38550925925925927</v>
+      </c>
+      <c r="G11" s="108">
+        <v>20</v>
+      </c>
+      <c r="H11" s="108">
+        <v>157</v>
+      </c>
+      <c r="I11" s="108">
+        <v>769</v>
+      </c>
+      <c r="K11" s="108">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="109"/>
+      <c r="E12" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="K12" s="109"/>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D13" s="108">
+        <v>5</v>
+      </c>
+      <c r="E13" s="55">
+        <v>0.47228009259259257</v>
+      </c>
+      <c r="F13" s="57">
+        <v>0.43062500000000004</v>
+      </c>
+      <c r="G13" s="108">
+        <v>19</v>
+      </c>
+      <c r="H13" s="108">
+        <v>179</v>
+      </c>
+      <c r="I13" s="108">
+        <v>1229</v>
+      </c>
+      <c r="K13" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="109"/>
+      <c r="E14" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="K14" s="109"/>
+    </row>
+    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D15" s="108">
+        <v>6</v>
+      </c>
+      <c r="E15" s="55">
+        <v>0.47574074074074074</v>
+      </c>
+      <c r="F15" s="57">
+        <v>0.22575231481481481</v>
+      </c>
+      <c r="G15" s="108">
+        <v>12</v>
+      </c>
+      <c r="H15" s="108">
+        <v>73</v>
+      </c>
+      <c r="I15" s="108">
+        <v>101</v>
+      </c>
+      <c r="K15" s="108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="109"/>
+      <c r="E16" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="K16" s="109"/>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D17" s="108">
+        <v>7</v>
+      </c>
+      <c r="E17" s="55">
+        <v>0.47921296296296295</v>
+      </c>
+      <c r="F17" s="57">
+        <v>0.47922453703703699</v>
+      </c>
+      <c r="G17" s="108">
+        <v>18</v>
+      </c>
+      <c r="H17" s="108">
+        <v>197</v>
+      </c>
+      <c r="I17" s="108">
+        <v>2221</v>
+      </c>
+      <c r="K17" s="108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="109"/>
+      <c r="E18" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="K18" s="109"/>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D19" s="108">
+        <v>8</v>
+      </c>
+      <c r="E19" s="55">
+        <v>0.48268518518518522</v>
+      </c>
+      <c r="F19" s="57">
+        <v>0.14936342592592591</v>
+      </c>
+      <c r="G19" s="108">
+        <v>14</v>
+      </c>
+      <c r="H19" s="108">
+        <v>41</v>
+      </c>
+      <c r="I19" s="108">
+        <v>151</v>
+      </c>
+      <c r="K19" s="108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="109"/>
+      <c r="E20" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+      <c r="K20" s="109"/>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D21" s="108">
+        <v>9</v>
+      </c>
+      <c r="E21" s="55">
+        <v>0.48616898148148152</v>
+      </c>
+      <c r="F21" s="57">
+        <v>0.36118055555555556</v>
+      </c>
+      <c r="G21" s="108">
+        <v>21</v>
+      </c>
+      <c r="H21" s="108">
+        <v>137</v>
+      </c>
+      <c r="I21" s="108">
+        <v>179</v>
+      </c>
+      <c r="K21" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="109"/>
+      <c r="E22" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="K22" s="109"/>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D23" s="108">
+        <v>10</v>
+      </c>
+      <c r="E23" s="55">
+        <v>0.48962962962962964</v>
+      </c>
+      <c r="F23" s="57">
+        <v>0.48964120370370368</v>
+      </c>
+      <c r="G23" s="108">
+        <v>18</v>
+      </c>
+      <c r="H23" s="108">
+        <v>197</v>
+      </c>
+      <c r="I23" s="108">
+        <v>199</v>
+      </c>
+      <c r="K23" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="109"/>
+      <c r="E24" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="109"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="109"/>
+      <c r="K24" s="109"/>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="108">
+        <v>11</v>
+      </c>
+      <c r="E25" s="55">
+        <v>0.49311342592592594</v>
+      </c>
+      <c r="F25" s="57">
+        <v>0.36812500000000004</v>
+      </c>
+      <c r="G25" s="108">
+        <v>21</v>
+      </c>
+      <c r="H25" s="108">
+        <v>137</v>
+      </c>
+      <c r="I25" s="108">
+        <v>223</v>
+      </c>
+      <c r="K25" s="108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="109"/>
+      <c r="E26" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="109"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="109"/>
+      <c r="K26" s="109"/>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D27" s="108">
+        <v>12</v>
+      </c>
+      <c r="E27" s="55">
+        <v>0.49657407407407406</v>
+      </c>
+      <c r="F27" s="57">
+        <v>7.9907407407407413E-2</v>
+      </c>
+      <c r="G27" s="108">
+        <v>16</v>
+      </c>
+      <c r="H27" s="108">
+        <v>11</v>
+      </c>
+      <c r="I27" s="108">
+        <v>263</v>
+      </c>
+      <c r="K27" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="109"/>
+      <c r="E28" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
+      <c r="K28" s="109"/>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D29" s="108">
+        <v>13</v>
+      </c>
+      <c r="E29" s="55">
+        <v>0.50004629629629627</v>
+      </c>
+      <c r="F29" s="57">
         <v>0.25005787037037036</v>
       </c>
-      <c r="G5" s="122">
+      <c r="G29" s="108">
+        <v>12</v>
+      </c>
+      <c r="H29" s="108">
+        <v>97</v>
+      </c>
+      <c r="I29" s="108">
+        <v>227</v>
+      </c>
+      <c r="K29" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="109"/>
+      <c r="E30" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="109"/>
+      <c r="K30" s="109"/>
+    </row>
+    <row r="31" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D31" s="108">
+        <v>14</v>
+      </c>
+      <c r="E31" s="55">
+        <v>0.50004629629629627</v>
+      </c>
+      <c r="F31" s="57">
+        <v>0.29172453703703705</v>
+      </c>
+      <c r="G31" s="108">
+        <v>10</v>
+      </c>
+      <c r="H31" s="108">
+        <v>109</v>
+      </c>
+      <c r="I31" s="108">
+        <v>269</v>
+      </c>
+      <c r="K31" s="108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="109"/>
+      <c r="E32" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="109"/>
+      <c r="K32" s="109"/>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D33" s="108">
+        <v>15</v>
+      </c>
+      <c r="E33" s="55">
+        <v>0.50004629629629627</v>
+      </c>
+      <c r="F33" s="57">
+        <v>8.3391203703703717E-2</v>
+      </c>
+      <c r="G33" s="108">
+        <v>16</v>
+      </c>
+      <c r="H33" s="108">
         <v>23</v>
       </c>
-      <c r="H5" s="122">
+      <c r="I33" s="108">
+        <v>59</v>
+      </c>
+      <c r="K33" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="109"/>
+      <c r="E34" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="109"/>
+      <c r="K34" s="109"/>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D35" s="108">
+        <v>16</v>
+      </c>
+      <c r="E35" s="55">
+        <v>0.50012731481481476</v>
+      </c>
+      <c r="F35" s="57">
+        <v>0.33347222222222223</v>
+      </c>
+      <c r="G35" s="108">
+        <v>22</v>
+      </c>
+      <c r="H35" s="108">
+        <v>137</v>
+      </c>
+      <c r="I35" s="108">
+        <v>313</v>
+      </c>
+      <c r="K35" s="108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="109"/>
+      <c r="E36" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" s="109"/>
+      <c r="H36" s="109"/>
+      <c r="I36" s="109"/>
+      <c r="K36" s="109"/>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D37" s="108">
+        <v>17</v>
+      </c>
+      <c r="E37" s="55">
+        <v>0.50005787037037031</v>
+      </c>
+      <c r="F37" s="57">
+        <v>0.12508101851851852</v>
+      </c>
+      <c r="G37" s="108">
+        <v>15</v>
+      </c>
+      <c r="H37" s="108">
+        <v>41</v>
+      </c>
+      <c r="I37" s="108">
         <v>97</v>
       </c>
-      <c r="I5" s="122">
-        <v>227</v>
-      </c>
-      <c r="J5" s="122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="123"/>
-      <c r="F6" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-    </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="59">
-        <v>0.46186342592592594</v>
-      </c>
-      <c r="E7" s="122">
-        <v>2</v>
-      </c>
-      <c r="F7" s="61">
-        <v>0.25354166666666667</v>
-      </c>
-      <c r="G7" s="122">
-        <v>10</v>
-      </c>
-      <c r="H7" s="122">
-        <v>97</v>
-      </c>
-      <c r="I7" s="122">
-        <v>127</v>
-      </c>
-      <c r="J7" s="122">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="123"/>
-      <c r="F8" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="59">
-        <v>0.46533564814814815</v>
-      </c>
-      <c r="E9" s="122">
-        <v>3</v>
-      </c>
-      <c r="F9" s="61">
-        <v>0.38201388888888888</v>
-      </c>
-      <c r="G9" s="122">
-        <v>1</v>
-      </c>
-      <c r="H9" s="122">
-        <v>157</v>
-      </c>
-      <c r="I9" s="122">
-        <v>467</v>
-      </c>
-      <c r="J9" s="122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" s="123"/>
-      <c r="F10" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="59">
-        <v>0.46883101851851849</v>
-      </c>
-      <c r="E11" s="122">
-        <v>4</v>
-      </c>
-      <c r="F11" s="61">
-        <v>0.38550925925925927</v>
-      </c>
-      <c r="G11" s="122">
-        <v>20</v>
-      </c>
-      <c r="H11" s="122">
-        <v>157</v>
-      </c>
-      <c r="I11" s="122">
-        <v>769</v>
-      </c>
-      <c r="J11" s="122">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="E12" s="123"/>
-      <c r="F12" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="59">
-        <v>0.47228009259259257</v>
-      </c>
-      <c r="E13" s="122">
-        <v>5</v>
-      </c>
-      <c r="F13" s="61">
-        <v>0.43062500000000004</v>
-      </c>
-      <c r="G13" s="122">
-        <v>19</v>
-      </c>
-      <c r="H13" s="122">
-        <v>179</v>
-      </c>
-      <c r="I13" s="122">
-        <v>1229</v>
-      </c>
-      <c r="J13" s="122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="123"/>
-      <c r="F14" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="59">
-        <v>0.47574074074074074</v>
-      </c>
-      <c r="E15" s="122">
-        <v>6</v>
-      </c>
-      <c r="F15" s="61">
-        <v>0.22575231481481481</v>
-      </c>
-      <c r="G15" s="122">
-        <v>12</v>
-      </c>
-      <c r="H15" s="122">
-        <v>73</v>
-      </c>
-      <c r="I15" s="122">
-        <v>101</v>
-      </c>
-      <c r="J15" s="122">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" s="123"/>
-      <c r="F16" s="55" t="s">
+      <c r="K37" s="108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="109"/>
+      <c r="E38" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D17" s="59">
-        <v>0.47921296296296295</v>
-      </c>
-      <c r="E17" s="122">
-        <v>7</v>
-      </c>
-      <c r="F17" s="61">
-        <v>0.47922453703703699</v>
-      </c>
-      <c r="G17" s="122">
-        <v>18</v>
-      </c>
-      <c r="H17" s="122">
-        <v>197</v>
-      </c>
-      <c r="I17" s="122">
-        <v>2221</v>
-      </c>
-      <c r="J17" s="122">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="123"/>
-      <c r="F18" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="123"/>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D19" s="59">
-        <v>0.48268518518518522</v>
-      </c>
-      <c r="E19" s="122">
-        <v>8</v>
-      </c>
-      <c r="F19" s="61">
-        <v>0.14936342592592591</v>
-      </c>
-      <c r="G19" s="122">
-        <v>14</v>
-      </c>
-      <c r="H19" s="122">
-        <v>41</v>
-      </c>
-      <c r="I19" s="122">
-        <v>151</v>
-      </c>
-      <c r="J19" s="122">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="E20" s="123"/>
-      <c r="F20" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-    </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D21" s="59">
-        <v>0.48616898148148152</v>
-      </c>
-      <c r="E21" s="122">
-        <v>9</v>
-      </c>
-      <c r="F21" s="61">
-        <v>0.36118055555555556</v>
-      </c>
-      <c r="G21" s="122">
-        <v>21</v>
-      </c>
-      <c r="H21" s="122">
-        <v>137</v>
-      </c>
-      <c r="I21" s="122">
-        <v>179</v>
-      </c>
-      <c r="J21" s="122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="123"/>
-      <c r="F22" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-    </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D23" s="59">
-        <v>0.48962962962962964</v>
-      </c>
-      <c r="E23" s="122">
-        <v>10</v>
-      </c>
-      <c r="F23" s="61">
-        <v>0.48964120370370368</v>
-      </c>
-      <c r="G23" s="122">
-        <v>18</v>
-      </c>
-      <c r="H23" s="122">
-        <v>197</v>
-      </c>
-      <c r="I23" s="122">
-        <v>199</v>
-      </c>
-      <c r="J23" s="122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" s="123"/>
-      <c r="F24" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="123"/>
-    </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D25" s="59">
-        <v>0.49311342592592594</v>
-      </c>
-      <c r="E25" s="122">
-        <v>11</v>
-      </c>
-      <c r="F25" s="61">
-        <v>0.36812500000000004</v>
-      </c>
-      <c r="G25" s="122">
-        <v>21</v>
-      </c>
-      <c r="H25" s="122">
-        <v>137</v>
-      </c>
-      <c r="I25" s="122">
-        <v>223</v>
-      </c>
-      <c r="J25" s="122">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26" s="123"/>
-      <c r="F26" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="123"/>
-    </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D27" s="59">
-        <v>0.49657407407407406</v>
-      </c>
-      <c r="E27" s="122">
-        <v>12</v>
-      </c>
-      <c r="F27" s="61">
-        <v>7.9907407407407413E-2</v>
-      </c>
-      <c r="G27" s="122">
-        <v>16</v>
-      </c>
-      <c r="H27" s="122">
-        <v>11</v>
-      </c>
-      <c r="I27" s="122">
-        <v>263</v>
-      </c>
-      <c r="J27" s="122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="123"/>
-      <c r="F28" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="123"/>
-    </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D29" s="59">
-        <v>0.50004629629629627</v>
-      </c>
-      <c r="E29" s="122">
-        <v>13</v>
-      </c>
-      <c r="F29" s="61">
-        <v>0.25005787037037036</v>
-      </c>
-      <c r="G29" s="122">
-        <v>12</v>
-      </c>
-      <c r="H29" s="122">
-        <v>97</v>
-      </c>
-      <c r="I29" s="122">
-        <v>227</v>
-      </c>
-      <c r="J29" s="122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="E30" s="123"/>
-      <c r="F30" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="G30" s="123"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="123"/>
-    </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D31" s="59">
-        <v>0.50004629629629627</v>
-      </c>
-      <c r="E31" s="122">
-        <v>14</v>
-      </c>
-      <c r="F31" s="61">
-        <v>0.29172453703703705</v>
-      </c>
-      <c r="G31" s="122">
-        <v>10</v>
-      </c>
-      <c r="H31" s="122">
-        <v>109</v>
-      </c>
-      <c r="I31" s="122">
-        <v>269</v>
-      </c>
-      <c r="J31" s="122">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" s="123"/>
-      <c r="F32" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123"/>
-    </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D33" s="59">
-        <v>0.50004629629629627</v>
-      </c>
-      <c r="E33" s="122">
-        <v>15</v>
-      </c>
-      <c r="F33" s="61">
-        <v>8.3391203703703717E-2</v>
-      </c>
-      <c r="G33" s="122">
-        <v>16</v>
-      </c>
-      <c r="H33" s="122">
-        <v>23</v>
-      </c>
-      <c r="I33" s="122">
-        <v>59</v>
-      </c>
-      <c r="J33" s="122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="E34" s="123"/>
-      <c r="F34" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="123"/>
-    </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D35" s="59">
-        <v>0.50012731481481476</v>
-      </c>
-      <c r="E35" s="122">
-        <v>16</v>
-      </c>
-      <c r="F35" s="61">
-        <v>0.33347222222222223</v>
-      </c>
-      <c r="G35" s="122">
-        <v>22</v>
-      </c>
-      <c r="H35" s="122">
-        <v>137</v>
-      </c>
-      <c r="I35" s="122">
-        <v>313</v>
-      </c>
-      <c r="J35" s="122">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="E36" s="123"/>
-      <c r="F36" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="G36" s="123"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="123"/>
-    </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D37" s="59">
-        <v>0.50005787037037031</v>
-      </c>
-      <c r="E37" s="122">
-        <v>17</v>
-      </c>
-      <c r="F37" s="61">
-        <v>0.12508101851851852</v>
-      </c>
-      <c r="G37" s="122">
-        <v>15</v>
-      </c>
-      <c r="H37" s="122">
-        <v>41</v>
-      </c>
-      <c r="I37" s="122">
-        <v>97</v>
-      </c>
-      <c r="J37" s="122">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="E38" s="123"/>
-      <c r="F38" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="G38" s="123"/>
-      <c r="H38" s="123"/>
-      <c r="I38" s="123"/>
-      <c r="J38" s="123"/>
+      <c r="G38" s="109"/>
+      <c r="H38" s="109"/>
+      <c r="I38" s="109"/>
+      <c r="K38" s="109"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="E7:E8"/>
+  <mergeCells count="89">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K7:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4784,7 +4890,7 @@
   <sheetData>
     <row r="4" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.25">
@@ -4796,21 +4902,21 @@
       </c>
     </row>
     <row r="18" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J18" s="124" t="s">
+      <c r="J18" s="110" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="124" t="s">
+      <c r="K18" s="110" t="s">
         <v>116</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
       <c r="L19" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="10:13" x14ac:dyDescent="0.25">
@@ -5009,7 +5115,7 @@
       </c>
     </row>
     <row r="33" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M33" s="62"/>
+      <c r="M33" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5022,192 +5128,132 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:K16"/>
+  <dimension ref="D4:K13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:G16"/>
+      <selection activeCell="G12" sqref="D5:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
     <col min="7" max="7" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="125" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="79">
-        <v>0.37903935185185184</v>
-      </c>
-      <c r="H5" s="78"/>
+      <c r="D5" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="72">
+        <v>0.42850694444444448</v>
+      </c>
+      <c r="H5" s="71"/>
     </row>
     <row r="6" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="100" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" s="121"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="80">
-        <v>478</v>
-      </c>
-      <c r="H6" s="78"/>
+      <c r="D6" s="124" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="125"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="118">
+        <v>97</v>
+      </c>
+      <c r="H6" s="71"/>
     </row>
     <row r="7" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="E7" s="30">
-        <v>36</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="G7" s="88" t="s">
+      <c r="D7" s="124" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="125"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="119">
+        <v>4</v>
+      </c>
+      <c r="H7" s="71"/>
+    </row>
+    <row r="8" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="120" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="121"/>
+      <c r="F8" s="116" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="117"/>
+      <c r="H8" s="71"/>
+    </row>
+    <row r="9" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="30">
+        <v>10</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="115" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="69"/>
+      <c r="J9" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K9" s="68"/>
+    </row>
+    <row r="10" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="128" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="127">
+        <v>80</v>
+      </c>
+      <c r="F10" s="129" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="J7" s="72" t="s">
-        <v>167</v>
-      </c>
-      <c r="K7" s="72"/>
-    </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D8" s="82" t="s">
-        <v>156</v>
-      </c>
-      <c r="E8" s="81">
-        <v>55</v>
-      </c>
-      <c r="F8" s="82" t="s">
-        <v>169</v>
-      </c>
-      <c r="G8" s="86" t="b">
-        <f>E$7&lt; E8</f>
+      <c r="G10" s="130" t="b">
+        <f>E$9&lt; E10</f>
         <v>1</v>
       </c>
-      <c r="H8" s="63"/>
-    </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D9" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" s="28">
-        <v>49</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G9" s="87" t="b">
-        <f t="shared" ref="G9:G12" si="0">E$7&lt; E9</f>
-        <v>1</v>
-      </c>
-      <c r="H9" s="63"/>
-    </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="28">
-        <v>104</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G10" s="87" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H10" s="63"/>
-    </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D11" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E11" s="28">
-        <v>495</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="87" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H11" s="63"/>
-    </row>
-    <row r="12" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E12" s="28">
-        <v>2695</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G12" s="87" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H12" s="63"/>
-    </row>
-    <row r="13" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="83" t="s">
-        <v>175</v>
-      </c>
-      <c r="E13" s="31">
-        <f>G6-E7</f>
-        <v>442</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="G13" s="84"/>
-      <c r="H13" s="71"/>
-    </row>
-    <row r="14" spans="4:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D14" s="127"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="17" t="s">
+      <c r="H10" s="59"/>
+    </row>
+    <row r="11" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="131" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="75"/>
+    </row>
+    <row r="12" spans="4:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="134"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="137" t="s">
         <v>164</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D15" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="E15" s="109" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" s="109"/>
-      <c r="G15" s="110"/>
-    </row>
-    <row r="16" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" s="77">
-        <v>263</v>
-      </c>
-      <c r="F16" s="75"/>
-      <c r="G16" s="76"/>
+      <c r="G12" s="136">
+        <v>419</v>
+      </c>
+      <c r="H12" s="59"/>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H13" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="D6:F6"/>
-    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="E11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5219,8 +5265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F5:P482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5237,12 +5283,12 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="I6" s="129" t="s">
-        <v>181</v>
-      </c>
-      <c r="J6" s="130"/>
+      <c r="I6" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="J6" s="112"/>
       <c r="K6" s="31" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="L6" s="31">
         <v>2</v>
@@ -5254,9 +5300,9 @@
         <v>5</v>
       </c>
       <c r="O6" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="P6" s="89">
+        <v>152</v>
+      </c>
+      <c r="P6" s="74">
         <v>509</v>
       </c>
     </row>
@@ -5264,10 +5310,10 @@
       <c r="F7">
         <v>5</v>
       </c>
-      <c r="I7" s="131"/>
-      <c r="J7" s="132"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="114"/>
       <c r="K7" s="22" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="L7" s="22">
         <v>1</v>
@@ -5279,7 +5325,7 @@
         <v>3</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="P7" s="23">
         <v>97</v>
@@ -5297,12 +5343,12 @@
     </row>
     <row r="10" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="6:16" x14ac:dyDescent="0.25">
@@ -5314,14 +5360,14 @@
       <c r="F13">
         <v>23</v>
       </c>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
     </row>
     <row r="14" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F14">
